--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.75743351262084</v>
+        <v>26.75743351262093</v>
       </c>
       <c r="C2">
-        <v>20.38001359168296</v>
+        <v>20.38001359168307</v>
       </c>
       <c r="D2">
-        <v>7.466209900656956</v>
+        <v>7.466209900656898</v>
       </c>
       <c r="E2">
-        <v>30.95606193615058</v>
+        <v>30.95606193615049</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.31017553006122</v>
+        <v>64.31017553006107</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.60018156075962</v>
+        <v>24.60018156075948</v>
       </c>
       <c r="C3">
-        <v>18.71644248260248</v>
+        <v>18.71644248260255</v>
       </c>
       <c r="D3">
-        <v>6.887714390553236</v>
+        <v>6.887714390553304</v>
       </c>
       <c r="E3">
-        <v>28.42367362518513</v>
+        <v>28.42367362518504</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77365940774683</v>
+        <v>59.77365940774681</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24043746201588</v>
+        <v>23.24043746201583</v>
       </c>
       <c r="C4">
-        <v>17.67254094926708</v>
+        <v>17.67254094926672</v>
       </c>
       <c r="D4">
-        <v>6.521172430946683</v>
+        <v>6.521172430946698</v>
       </c>
       <c r="E4">
-        <v>26.83655742505753</v>
+        <v>26.83655742505748</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.93825801031585</v>
+        <v>56.93825801031574</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.67623941053418</v>
+        <v>22.67623941053422</v>
       </c>
       <c r="C5">
-        <v>17.24035435687828</v>
+        <v>17.24035435687806</v>
       </c>
       <c r="D5">
         <v>6.368666225688216</v>
       </c>
       <c r="E5">
-        <v>26.17985912551241</v>
+        <v>26.17985912551244</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.76839572050913</v>
+        <v>55.76839572050918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.58191324508595</v>
+        <v>22.58191324508579</v>
       </c>
       <c r="C6">
-        <v>17.16815067014866</v>
+        <v>17.16815067014854</v>
       </c>
       <c r="D6">
         <v>6.343145771875275</v>
       </c>
       <c r="E6">
-        <v>26.07016771300118</v>
+        <v>26.07016771300103</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.5732275769818</v>
+        <v>55.57322757698151</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.23287082495512</v>
+        <v>23.23287082495513</v>
       </c>
       <c r="C7">
-        <v>17.6667411709472</v>
+        <v>17.66674117094706</v>
       </c>
       <c r="D7">
         <v>6.519128723620654</v>
       </c>
       <c r="E7">
-        <v>26.82774336083707</v>
+        <v>26.82774336083703</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.92254121177334</v>
+        <v>56.922541211773</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02008566072729</v>
+        <v>26.0200856607275</v>
       </c>
       <c r="C8">
-        <v>19.81031778639041</v>
+        <v>19.81031778639043</v>
       </c>
       <c r="D8">
-        <v>7.268910576938708</v>
+        <v>7.26891057693859</v>
       </c>
       <c r="E8">
-        <v>30.08835582737925</v>
+        <v>30.08835582737931</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.75504198796244</v>
+        <v>62.75504198796288</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.27981881754264</v>
+        <v>31.27981881754265</v>
       </c>
       <c r="C9">
-        <v>23.90248758190396</v>
+        <v>23.90248758190402</v>
       </c>
       <c r="D9">
-        <v>8.665646918297808</v>
+        <v>8.665646918297604</v>
       </c>
       <c r="E9">
         <v>36.33573345774793</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.91989940591777</v>
+        <v>73.91989940591745</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.16307677138641</v>
+        <v>35.16307677138663</v>
       </c>
       <c r="C10">
-        <v>26.97332678035736</v>
+        <v>26.97332678035709</v>
       </c>
       <c r="D10">
-        <v>9.678745607691804</v>
+        <v>9.678745607691818</v>
       </c>
       <c r="E10">
-        <v>41.0558744663588</v>
+        <v>41.05587446635893</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>82.44009330284942</v>
+        <v>82.44009330284968</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.98732295964753</v>
+        <v>36.9873229596476</v>
       </c>
       <c r="C11">
-        <v>28.43352456588525</v>
+        <v>28.43352456588523</v>
       </c>
       <c r="D11">
-        <v>10.14830076280754</v>
+        <v>10.14830076280742</v>
       </c>
       <c r="E11">
-        <v>43.31535194277775</v>
+        <v>43.31535194277782</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>86.47118129979648</v>
+        <v>86.47118129979738</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.69387500102449</v>
+        <v>37.69387500102435</v>
       </c>
       <c r="C12">
-        <v>29.0024501226659</v>
+        <v>29.00245012266581</v>
       </c>
       <c r="D12">
-        <v>10.32893534403127</v>
+        <v>10.32893534403137</v>
       </c>
       <c r="E12">
-        <v>44.19911599061617</v>
+        <v>44.19911599061611</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>88.02925027219628</v>
+        <v>88.02925027219565</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.54084318290587</v>
+        <v>37.54084318290582</v>
       </c>
       <c r="C13">
-        <v>28.87906026014734</v>
+        <v>28.87906026014749</v>
       </c>
       <c r="D13">
-        <v>10.28987274131263</v>
+        <v>10.28987274131249</v>
       </c>
       <c r="E13">
-        <v>44.00726304523029</v>
+        <v>44.00726304523022</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>87.69196096689778</v>
+        <v>87.6919609668975</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.04507882998445</v>
+        <v>37.0450788299842</v>
       </c>
       <c r="C14">
-        <v>28.47995737318558</v>
+        <v>28.47995737318565</v>
       </c>
       <c r="D14">
         <v>10.16309313251969</v>
       </c>
       <c r="E14">
-        <v>43.38740243711172</v>
+        <v>43.38740243711151</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>86.59861729323271</v>
+        <v>86.59861729323161</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.74374735600108</v>
+        <v>36.74374735600102</v>
       </c>
       <c r="C15">
-        <v>28.23784274819839</v>
+        <v>28.23784274819838</v>
       </c>
       <c r="D15">
-        <v>10.08586509483638</v>
+        <v>10.08586509483636</v>
       </c>
       <c r="E15">
-        <v>43.01185529849151</v>
+        <v>43.01185529849155</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85.93360280560344</v>
+        <v>85.93360280560337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.04557519101873</v>
+        <v>35.04557519101883</v>
       </c>
       <c r="C16">
-        <v>26.87968503199294</v>
+        <v>26.87968503199319</v>
       </c>
       <c r="D16">
         <v>9.648351895750954</v>
       </c>
       <c r="E16">
-        <v>40.91135958728592</v>
+        <v>40.91135958728606</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>82.180094744737</v>
+        <v>82.18009474473767</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.02283840464892</v>
+        <v>34.02283840464924</v>
       </c>
       <c r="C17">
-        <v>26.06662057137343</v>
+        <v>26.06662057137382</v>
       </c>
       <c r="D17">
-        <v>9.383082551092231</v>
+        <v>9.383082551092389</v>
       </c>
       <c r="E17">
-        <v>39.65829000143957</v>
+        <v>39.65829000143988</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>79.91559482945276</v>
+        <v>79.91559482945449</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.43942895578326</v>
+        <v>33.43942895578316</v>
       </c>
       <c r="C18">
-        <v>25.60437303539291</v>
+        <v>25.60437303539304</v>
       </c>
       <c r="D18">
-        <v>9.231200205502828</v>
+        <v>9.231200205502816</v>
       </c>
       <c r="E18">
-        <v>38.94716040353376</v>
+        <v>38.94716040353365</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>78.62281265562288</v>
+        <v>78.62281265562254</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.24255588251882</v>
+        <v>33.24255588251852</v>
       </c>
       <c r="C19">
-        <v>25.44863366108743</v>
+        <v>25.44863366108709</v>
       </c>
       <c r="D19">
-        <v>9.179857838947839</v>
+        <v>9.1798578389478</v>
       </c>
       <c r="E19">
-        <v>38.70776037746635</v>
+        <v>38.70776037746609</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>78.18641911775302</v>
+        <v>78.18641911775198</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.1311667019519</v>
+        <v>34.13116670195208</v>
       </c>
       <c r="C20">
-        <v>26.15257385585821</v>
+        <v>26.15257385585842</v>
       </c>
       <c r="D20">
-        <v>9.411240052421851</v>
+        <v>9.411240052421785</v>
       </c>
       <c r="E20">
-        <v>39.79061970648692</v>
+        <v>39.79061970648696</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>80.15556535240998</v>
+        <v>80.15556535241031</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.19019012908949</v>
+        <v>37.1901901290894</v>
       </c>
       <c r="C21">
-        <v>28.5966764058726</v>
+        <v>28.59667640587253</v>
       </c>
       <c r="D21">
-        <v>10.20023810159928</v>
+        <v>10.20023810159923</v>
       </c>
       <c r="E21">
-        <v>43.56857688840544</v>
+        <v>43.5685768884054</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>86.91874256146519</v>
+        <v>86.91874256146572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.28824240804011</v>
+        <v>39.28824240804001</v>
       </c>
       <c r="C22">
-        <v>30.29369464838456</v>
+        <v>30.29369464838437</v>
       </c>
       <c r="D22">
-        <v>10.73381042621989</v>
+        <v>10.73381042621993</v>
       </c>
       <c r="E22">
-        <v>46.21343877814532</v>
+        <v>46.21343877814536</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>91.53700487204912</v>
+        <v>91.53700487204959</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.15575690402488</v>
+        <v>38.15575690402491</v>
       </c>
       <c r="C23">
-        <v>29.37543624280721</v>
+        <v>29.37543624280731</v>
       </c>
       <c r="D23">
-        <v>10.44662521252995</v>
+        <v>10.44662521252998</v>
       </c>
       <c r="E23">
-        <v>44.77969265531321</v>
+        <v>44.77969265531329</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>89.04664923404037</v>
+        <v>89.04664923404088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.08217772640702</v>
+        <v>34.08217772640682</v>
       </c>
       <c r="C24">
-        <v>26.11369865864923</v>
+        <v>26.11369865864926</v>
       </c>
       <c r="D24">
         <v>9.398508206827149</v>
       </c>
       <c r="E24">
-        <v>39.73076535019269</v>
+        <v>39.73076535019263</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>80.04704730918056</v>
+        <v>80.04704730918017</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.866861337211</v>
+        <v>29.86686133721111</v>
       </c>
       <c r="C25">
-        <v>22.79630653503228</v>
+        <v>22.79630653503235</v>
       </c>
       <c r="D25">
-        <v>8.292977432331575</v>
+        <v>8.292977432331595</v>
       </c>
       <c r="E25">
-        <v>34.64318257571946</v>
+        <v>34.64318257571956</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.90727108332671</v>
+        <v>70.90727108332703</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.75743351262093</v>
+        <v>26.75743351262084</v>
       </c>
       <c r="C2">
-        <v>20.38001359168307</v>
+        <v>20.38001359168296</v>
       </c>
       <c r="D2">
-        <v>7.466209900656898</v>
+        <v>7.466209900656956</v>
       </c>
       <c r="E2">
-        <v>30.95606193615049</v>
+        <v>30.95606193615058</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.31017553006107</v>
+        <v>64.31017553006122</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.60018156075948</v>
+        <v>24.60018156075962</v>
       </c>
       <c r="C3">
-        <v>18.71644248260255</v>
+        <v>18.71644248260248</v>
       </c>
       <c r="D3">
-        <v>6.887714390553304</v>
+        <v>6.887714390553236</v>
       </c>
       <c r="E3">
-        <v>28.42367362518504</v>
+        <v>28.42367362518513</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77365940774681</v>
+        <v>59.77365940774683</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24043746201583</v>
+        <v>23.24043746201588</v>
       </c>
       <c r="C4">
-        <v>17.67254094926672</v>
+        <v>17.67254094926708</v>
       </c>
       <c r="D4">
-        <v>6.521172430946698</v>
+        <v>6.521172430946683</v>
       </c>
       <c r="E4">
-        <v>26.83655742505748</v>
+        <v>26.83655742505753</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.93825801031574</v>
+        <v>56.93825801031585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.67623941053422</v>
+        <v>22.67623941053418</v>
       </c>
       <c r="C5">
-        <v>17.24035435687806</v>
+        <v>17.24035435687828</v>
       </c>
       <c r="D5">
         <v>6.368666225688216</v>
       </c>
       <c r="E5">
-        <v>26.17985912551244</v>
+        <v>26.17985912551241</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.76839572050918</v>
+        <v>55.76839572050913</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.58191324508579</v>
+        <v>22.58191324508595</v>
       </c>
       <c r="C6">
-        <v>17.16815067014854</v>
+        <v>17.16815067014866</v>
       </c>
       <c r="D6">
         <v>6.343145771875275</v>
       </c>
       <c r="E6">
-        <v>26.07016771300103</v>
+        <v>26.07016771300118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.57322757698151</v>
+        <v>55.5732275769818</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.23287082495513</v>
+        <v>23.23287082495512</v>
       </c>
       <c r="C7">
-        <v>17.66674117094706</v>
+        <v>17.6667411709472</v>
       </c>
       <c r="D7">
         <v>6.519128723620654</v>
       </c>
       <c r="E7">
-        <v>26.82774336083703</v>
+        <v>26.82774336083707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.922541211773</v>
+        <v>56.92254121177334</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.0200856607275</v>
+        <v>26.02008566072729</v>
       </c>
       <c r="C8">
-        <v>19.81031778639043</v>
+        <v>19.81031778639041</v>
       </c>
       <c r="D8">
-        <v>7.26891057693859</v>
+        <v>7.268910576938708</v>
       </c>
       <c r="E8">
-        <v>30.08835582737931</v>
+        <v>30.08835582737925</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.75504198796288</v>
+        <v>62.75504198796244</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.27981881754265</v>
+        <v>31.27981881754264</v>
       </c>
       <c r="C9">
-        <v>23.90248758190402</v>
+        <v>23.90248758190396</v>
       </c>
       <c r="D9">
-        <v>8.665646918297604</v>
+        <v>8.665646918297808</v>
       </c>
       <c r="E9">
         <v>36.33573345774793</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.91989940591745</v>
+        <v>73.91989940591777</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.16307677138663</v>
+        <v>35.16307677138641</v>
       </c>
       <c r="C10">
-        <v>26.97332678035709</v>
+        <v>26.97332678035736</v>
       </c>
       <c r="D10">
-        <v>9.678745607691818</v>
+        <v>9.678745607691804</v>
       </c>
       <c r="E10">
-        <v>41.05587446635893</v>
+        <v>41.0558744663588</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>82.44009330284968</v>
+        <v>82.44009330284942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.9873229596476</v>
+        <v>36.98732295964753</v>
       </c>
       <c r="C11">
-        <v>28.43352456588523</v>
+        <v>28.43352456588525</v>
       </c>
       <c r="D11">
-        <v>10.14830076280742</v>
+        <v>10.14830076280754</v>
       </c>
       <c r="E11">
-        <v>43.31535194277782</v>
+        <v>43.31535194277775</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>86.47118129979738</v>
+        <v>86.47118129979648</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.69387500102435</v>
+        <v>37.69387500102449</v>
       </c>
       <c r="C12">
-        <v>29.00245012266581</v>
+        <v>29.0024501226659</v>
       </c>
       <c r="D12">
-        <v>10.32893534403137</v>
+        <v>10.32893534403127</v>
       </c>
       <c r="E12">
-        <v>44.19911599061611</v>
+        <v>44.19911599061617</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>88.02925027219565</v>
+        <v>88.02925027219628</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.54084318290582</v>
+        <v>37.54084318290587</v>
       </c>
       <c r="C13">
-        <v>28.87906026014749</v>
+        <v>28.87906026014734</v>
       </c>
       <c r="D13">
-        <v>10.28987274131249</v>
+        <v>10.28987274131263</v>
       </c>
       <c r="E13">
-        <v>44.00726304523022</v>
+        <v>44.00726304523029</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>87.6919609668975</v>
+        <v>87.69196096689778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.0450788299842</v>
+        <v>37.04507882998445</v>
       </c>
       <c r="C14">
-        <v>28.47995737318565</v>
+        <v>28.47995737318558</v>
       </c>
       <c r="D14">
         <v>10.16309313251969</v>
       </c>
       <c r="E14">
-        <v>43.38740243711151</v>
+        <v>43.38740243711172</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>86.59861729323161</v>
+        <v>86.59861729323271</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.74374735600102</v>
+        <v>36.74374735600108</v>
       </c>
       <c r="C15">
-        <v>28.23784274819838</v>
+        <v>28.23784274819839</v>
       </c>
       <c r="D15">
-        <v>10.08586509483636</v>
+        <v>10.08586509483638</v>
       </c>
       <c r="E15">
-        <v>43.01185529849155</v>
+        <v>43.01185529849151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85.93360280560337</v>
+        <v>85.93360280560344</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.04557519101883</v>
+        <v>35.04557519101873</v>
       </c>
       <c r="C16">
-        <v>26.87968503199319</v>
+        <v>26.87968503199294</v>
       </c>
       <c r="D16">
         <v>9.648351895750954</v>
       </c>
       <c r="E16">
-        <v>40.91135958728606</v>
+        <v>40.91135958728592</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>82.18009474473767</v>
+        <v>82.180094744737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.02283840464924</v>
+        <v>34.02283840464892</v>
       </c>
       <c r="C17">
-        <v>26.06662057137382</v>
+        <v>26.06662057137343</v>
       </c>
       <c r="D17">
-        <v>9.383082551092389</v>
+        <v>9.383082551092231</v>
       </c>
       <c r="E17">
-        <v>39.65829000143988</v>
+        <v>39.65829000143957</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>79.91559482945449</v>
+        <v>79.91559482945276</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.43942895578316</v>
+        <v>33.43942895578326</v>
       </c>
       <c r="C18">
-        <v>25.60437303539304</v>
+        <v>25.60437303539291</v>
       </c>
       <c r="D18">
-        <v>9.231200205502816</v>
+        <v>9.231200205502828</v>
       </c>
       <c r="E18">
-        <v>38.94716040353365</v>
+        <v>38.94716040353376</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>78.62281265562254</v>
+        <v>78.62281265562288</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.24255588251852</v>
+        <v>33.24255588251882</v>
       </c>
       <c r="C19">
-        <v>25.44863366108709</v>
+        <v>25.44863366108743</v>
       </c>
       <c r="D19">
-        <v>9.1798578389478</v>
+        <v>9.179857838947839</v>
       </c>
       <c r="E19">
-        <v>38.70776037746609</v>
+        <v>38.70776037746635</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>78.18641911775198</v>
+        <v>78.18641911775302</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.13116670195208</v>
+        <v>34.1311667019519</v>
       </c>
       <c r="C20">
-        <v>26.15257385585842</v>
+        <v>26.15257385585821</v>
       </c>
       <c r="D20">
-        <v>9.411240052421785</v>
+        <v>9.411240052421851</v>
       </c>
       <c r="E20">
-        <v>39.79061970648696</v>
+        <v>39.79061970648692</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>80.15556535241031</v>
+        <v>80.15556535240998</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.1901901290894</v>
+        <v>37.19019012908949</v>
       </c>
       <c r="C21">
-        <v>28.59667640587253</v>
+        <v>28.5966764058726</v>
       </c>
       <c r="D21">
-        <v>10.20023810159923</v>
+        <v>10.20023810159928</v>
       </c>
       <c r="E21">
-        <v>43.5685768884054</v>
+        <v>43.56857688840544</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>86.91874256146572</v>
+        <v>86.91874256146519</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.28824240804001</v>
+        <v>39.28824240804011</v>
       </c>
       <c r="C22">
-        <v>30.29369464838437</v>
+        <v>30.29369464838456</v>
       </c>
       <c r="D22">
-        <v>10.73381042621993</v>
+        <v>10.73381042621989</v>
       </c>
       <c r="E22">
-        <v>46.21343877814536</v>
+        <v>46.21343877814532</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>91.53700487204959</v>
+        <v>91.53700487204912</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.15575690402491</v>
+        <v>38.15575690402488</v>
       </c>
       <c r="C23">
-        <v>29.37543624280731</v>
+        <v>29.37543624280721</v>
       </c>
       <c r="D23">
-        <v>10.44662521252998</v>
+        <v>10.44662521252995</v>
       </c>
       <c r="E23">
-        <v>44.77969265531329</v>
+        <v>44.77969265531321</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>89.04664923404088</v>
+        <v>89.04664923404037</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.08217772640682</v>
+        <v>34.08217772640702</v>
       </c>
       <c r="C24">
-        <v>26.11369865864926</v>
+        <v>26.11369865864923</v>
       </c>
       <c r="D24">
         <v>9.398508206827149</v>
       </c>
       <c r="E24">
-        <v>39.73076535019263</v>
+        <v>39.73076535019269</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>80.04704730918017</v>
+        <v>80.04704730918056</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.86686133721111</v>
+        <v>29.866861337211</v>
       </c>
       <c r="C25">
-        <v>22.79630653503235</v>
+        <v>22.79630653503228</v>
       </c>
       <c r="D25">
-        <v>8.292977432331595</v>
+        <v>8.292977432331575</v>
       </c>
       <c r="E25">
-        <v>34.64318257571956</v>
+        <v>34.64318257571946</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.90727108332703</v>
+        <v>70.90727108332671</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.75743351262084</v>
+        <v>26.75007879254299</v>
       </c>
       <c r="C2">
-        <v>20.38001359168296</v>
+        <v>20.37163007099189</v>
       </c>
       <c r="D2">
-        <v>7.466209900656956</v>
+        <v>7.465350131933644</v>
       </c>
       <c r="E2">
-        <v>30.95606193615058</v>
+        <v>30.95211147155193</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.31017553006122</v>
+        <v>64.07624089291079</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>64.29373094569875</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,31 +447,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.60018156075962</v>
+        <v>24.59464425397726</v>
       </c>
       <c r="C3">
-        <v>18.71644248260248</v>
+        <v>18.70995882139819</v>
       </c>
       <c r="D3">
-        <v>6.887714390553236</v>
+        <v>6.887088171263245</v>
       </c>
       <c r="E3">
-        <v>28.42367362518513</v>
+        <v>28.42084871691368</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77365940774683</v>
+        <v>59.36898796982363</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.76053439227654</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,31 +488,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.24043746201588</v>
+        <v>23.23589355195037</v>
       </c>
       <c r="C4">
-        <v>17.67254094926708</v>
+        <v>17.66711379332194</v>
       </c>
       <c r="D4">
-        <v>6.521172430946683</v>
+        <v>6.520668859352972</v>
       </c>
       <c r="E4">
-        <v>26.83655742505753</v>
+        <v>26.83430993308395</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.93825801031585</v>
+        <v>56.41647496499586</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>56.92711956578184</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,31 +529,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.67623941053418</v>
+        <v>22.67207612000318</v>
       </c>
       <c r="C5">
-        <v>17.24035435687828</v>
+        <v>17.23533655919859</v>
       </c>
       <c r="D5">
-        <v>6.368666225688216</v>
+        <v>6.368208597312584</v>
       </c>
       <c r="E5">
-        <v>26.17985912551241</v>
+        <v>26.17782533418494</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.76839572050913</v>
+        <v>55.19558697806174</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>55.75806698109552</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,31 +570,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.58191324508595</v>
+        <v>22.57781185485481</v>
       </c>
       <c r="C6">
-        <v>17.16815067014866</v>
+        <v>17.1631997261436</v>
       </c>
       <c r="D6">
-        <v>6.343145771875275</v>
+        <v>6.342695557262329</v>
       </c>
       <c r="E6">
-        <v>26.07016771300118</v>
+        <v>26.0681682685512</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.5732275769818</v>
+        <v>54.99173997476954</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.56303363582362</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,31 +611,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.23287082495512</v>
+        <v>23.22833213858714</v>
       </c>
       <c r="C7">
-        <v>17.6667411709472</v>
+        <v>17.66131961411445</v>
       </c>
       <c r="D7">
-        <v>6.519128723620654</v>
+        <v>6.518625786643292</v>
       </c>
       <c r="E7">
-        <v>26.82774336083707</v>
+        <v>26.82549883060451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.92254121177334</v>
+        <v>56.40008368295144</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>56.91141367101692</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,31 +652,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02008566072729</v>
+        <v>26.01338761379941</v>
       </c>
       <c r="C8">
-        <v>19.81031778639041</v>
+        <v>19.80261666264983</v>
       </c>
       <c r="D8">
-        <v>7.268910576938708</v>
+        <v>7.268136466078734</v>
       </c>
       <c r="E8">
-        <v>30.08835582737925</v>
+        <v>30.0848219798303</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.75504198796244</v>
+        <v>62.46466295036775</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.7397615552217</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,31 +693,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.27981881754264</v>
+        <v>31.26747403513051</v>
       </c>
       <c r="C9">
-        <v>23.90248758190396</v>
+        <v>23.88901702484235</v>
       </c>
       <c r="D9">
-        <v>8.665646918297808</v>
+        <v>8.664097431981672</v>
       </c>
       <c r="E9">
-        <v>36.33573345774793</v>
+        <v>36.3282830466277</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.91989940591777</v>
+        <v>73.9958187849774</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>73.99581878497739</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,31 +734,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.16307677138641</v>
+        <v>35.14469587188484</v>
       </c>
       <c r="C10">
-        <v>26.97332678035736</v>
+        <v>26.95384062693467</v>
       </c>
       <c r="D10">
-        <v>9.678745607691804</v>
+        <v>9.676291967318724</v>
       </c>
       <c r="E10">
-        <v>41.0558744663588</v>
+        <v>41.04348969591459</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>82.44009330284942</v>
+        <v>82.52271891051075</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>82.52271891051076</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,31 +775,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.98732295964753</v>
+        <v>36.96531438511524</v>
       </c>
       <c r="C11">
-        <v>28.43352456588525</v>
+        <v>28.41046600409857</v>
       </c>
       <c r="D11">
-        <v>10.14830076280754</v>
+        <v>10.14527646264042</v>
       </c>
       <c r="E11">
-        <v>43.31535194277775</v>
+        <v>43.2996727442269</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>86.47118129979648</v>
+        <v>86.51880528019672</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>86.51880528075179</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,31 +816,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.69387500102449</v>
+        <v>37.6702866844451</v>
       </c>
       <c r="C12">
-        <v>29.0024501226659</v>
+        <v>28.97784320561061</v>
       </c>
       <c r="D12">
-        <v>10.32893534403127</v>
+        <v>10.32565731911374</v>
       </c>
       <c r="E12">
-        <v>44.19911599061617</v>
+        <v>44.18193040044237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>88.02925027219628</v>
+        <v>88.0635856836978</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>88.06358568369821</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,31 +857,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.54084318290587</v>
+        <v>37.51760618636457</v>
       </c>
       <c r="C13">
-        <v>28.87906026014734</v>
+        <v>28.85479734298592</v>
       </c>
       <c r="D13">
-        <v>10.28987274131263</v>
+        <v>10.28665139467678</v>
       </c>
       <c r="E13">
-        <v>44.00726304523029</v>
+        <v>43.99041612074264</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>87.69196096689778</v>
+        <v>87.72916529081235</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>87.72916529081236</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,31 +898,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.04507882998445</v>
+        <v>37.02294508683606</v>
       </c>
       <c r="C14">
-        <v>28.47995737318558</v>
+        <v>28.456775982427</v>
       </c>
       <c r="D14">
-        <v>10.16309313251969</v>
+        <v>10.16004883718342</v>
       </c>
       <c r="E14">
-        <v>43.38740243711172</v>
+        <v>43.37160543487771</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>86.59861729323271</v>
+        <v>86.64515060430951</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>86.64515060430951</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,31 +939,34 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.74374735600108</v>
+        <v>36.72225921618922</v>
       </c>
       <c r="C15">
-        <v>28.23784274819839</v>
+        <v>28.21529517889971</v>
       </c>
       <c r="D15">
-        <v>10.08586509483638</v>
+        <v>10.08292372499814</v>
       </c>
       <c r="E15">
-        <v>43.01185529849151</v>
+        <v>42.99666301069027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85.93360280560344</v>
+        <v>85.98583636279852</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>85.98583636279837</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,31 +980,34 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.04557519101873</v>
+        <v>35.02740803575289</v>
       </c>
       <c r="C16">
-        <v>26.87968503199294</v>
+        <v>26.86041020472706</v>
       </c>
       <c r="D16">
-        <v>9.648351895750954</v>
+        <v>9.645931307720716</v>
       </c>
       <c r="E16">
-        <v>40.91135958728592</v>
+        <v>40.89916152287999</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>82.180094744737</v>
+        <v>82.26501908870144</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>82.26501908907304</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,31 +1021,34 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.02283840464892</v>
+        <v>34.0064413642918</v>
       </c>
       <c r="C17">
-        <v>26.06662057137343</v>
+        <v>26.04910000884316</v>
       </c>
       <c r="D17">
-        <v>9.383082551092231</v>
+        <v>9.380932987843128</v>
       </c>
       <c r="E17">
-        <v>39.65829000143957</v>
+        <v>39.64760531472953</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>79.91559482945276</v>
+        <v>80.02080982006966</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>80.02080982007392</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,31 +1062,34 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.43942895578326</v>
+        <v>33.42397367296203</v>
       </c>
       <c r="C18">
-        <v>25.60437303539291</v>
+        <v>25.58778911033306</v>
       </c>
       <c r="D18">
-        <v>9.231200205502828</v>
+        <v>9.229192764909703</v>
       </c>
       <c r="E18">
-        <v>38.94716040353376</v>
+        <v>38.9372565297265</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>78.62281265562288</v>
+        <v>78.73985530369005</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>78.73985530369011</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,31 +1103,34 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.24255588251882</v>
+        <v>33.22740797876347</v>
       </c>
       <c r="C19">
-        <v>25.44863366108743</v>
+        <v>25.43235599013375</v>
       </c>
       <c r="D19">
-        <v>9.179857838947839</v>
+        <v>9.177896455958209</v>
       </c>
       <c r="E19">
-        <v>38.70776037746635</v>
+        <v>38.69810761218127</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>78.18641911775302</v>
+        <v>78.3074990417438</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>78.30749904174384</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,31 +1144,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.1311667019519</v>
+        <v>34.11458954417533</v>
       </c>
       <c r="C20">
-        <v>26.15257385585821</v>
+        <v>26.13487442990876</v>
       </c>
       <c r="D20">
-        <v>9.411240052421851</v>
+        <v>9.409063138491797</v>
       </c>
       <c r="E20">
-        <v>39.79061970648692</v>
+        <v>39.7797837359812</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>80.15556535240998</v>
+        <v>80.25860551735194</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>80.25860551735293</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,31 +1185,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.19019012908949</v>
+        <v>37.16773885594631</v>
       </c>
       <c r="C21">
-        <v>28.5966764058726</v>
+        <v>28.57318353713652</v>
       </c>
       <c r="D21">
-        <v>10.20023810159928</v>
+        <v>10.19714299694171</v>
       </c>
       <c r="E21">
-        <v>43.56857688840544</v>
+        <v>43.55247983265242</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>86.91874256146519</v>
+        <v>86.96253930047831</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>86.96253930047827</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,31 +1226,34 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.28824240804011</v>
+        <v>39.2606578029236</v>
       </c>
       <c r="C22">
-        <v>30.29369464838456</v>
+        <v>30.26518678670815</v>
       </c>
       <c r="D22">
-        <v>10.73381042621989</v>
+        <v>10.72987838490726</v>
       </c>
       <c r="E22">
-        <v>46.21343877814532</v>
+        <v>46.19225812753655</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>91.53700487204912</v>
+        <v>91.54163760618447</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>91.54163760618439</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,31 +1267,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.15575690402488</v>
+        <v>38.13107581421214</v>
       </c>
       <c r="C23">
-        <v>29.37543624280721</v>
+        <v>29.34976049001866</v>
       </c>
       <c r="D23">
-        <v>10.44662521252995</v>
+        <v>10.44317000776046</v>
       </c>
       <c r="E23">
-        <v>44.77969265531321</v>
+        <v>44.76144047963543</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>89.04664923404037</v>
+        <v>89.07235077324209</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>89.07235077327577</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,31 +1308,34 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.08217772640702</v>
+        <v>34.0656822311426</v>
       </c>
       <c r="C24">
-        <v>26.11369865864923</v>
+        <v>26.09608031608421</v>
       </c>
       <c r="D24">
-        <v>9.398508206827149</v>
+        <v>9.396343699864831</v>
       </c>
       <c r="E24">
-        <v>39.73076535019269</v>
+        <v>39.71999804641256</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>80.04704730918056</v>
+        <v>80.15107019107617</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>80.15107019107623</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,31 +1349,34 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.866861337211</v>
+        <v>29.85627320441902</v>
       </c>
       <c r="C25">
-        <v>22.79630653503228</v>
+        <v>22.78461087785019</v>
       </c>
       <c r="D25">
-        <v>8.292977432331575</v>
+        <v>8.291677794323524</v>
       </c>
       <c r="E25">
-        <v>34.64318257571946</v>
+        <v>34.63702847679971</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.90727108332671</v>
+        <v>70.89244686614883</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70.89244686614879</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>13.14152062979511</v>
+      </c>
+      <c r="C2">
+        <v>9.389812848214591</v>
+      </c>
+      <c r="D2">
+        <v>10.69246805136563</v>
+      </c>
+      <c r="E2">
+        <v>10.5685527167337</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>40.80281725495335</v>
+      </c>
+      <c r="H2">
+        <v>13.17211508220878</v>
+      </c>
+      <c r="I2">
+        <v>19.89745286413498</v>
+      </c>
+      <c r="J2">
+        <v>5.242810262421087</v>
+      </c>
+      <c r="K2">
+        <v>12.12386071488046</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13.42420197238306</v>
+      </c>
+      <c r="N2">
+        <v>14.72003311620519</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>12.25022292352572</v>
+      </c>
+      <c r="C3">
+        <v>8.829601194830408</v>
+      </c>
+      <c r="D3">
+        <v>10.35316534630656</v>
+      </c>
+      <c r="E3">
+        <v>10.33394905038475</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>39.91781856118672</v>
+      </c>
+      <c r="H3">
+        <v>13.11794719989588</v>
+      </c>
+      <c r="I3">
+        <v>19.82232834137779</v>
+      </c>
+      <c r="J3">
+        <v>5.257522642474476</v>
+      </c>
+      <c r="K3">
+        <v>11.46068307038176</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>12.94992989176451</v>
+      </c>
+      <c r="N3">
+        <v>14.91854282466903</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>11.7325241518467</v>
+      </c>
+      <c r="C4">
+        <v>8.473574298600301</v>
+      </c>
+      <c r="D4">
+        <v>10.14627768519526</v>
+      </c>
+      <c r="E4">
+        <v>10.19388437012217</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>39.40027513645361</v>
+      </c>
+      <c r="H4">
+        <v>13.09279500091844</v>
+      </c>
+      <c r="I4">
+        <v>19.78960055890622</v>
+      </c>
+      <c r="J4">
+        <v>5.268295666273325</v>
+      </c>
+      <c r="K4">
+        <v>11.04050838071262</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>12.65800671152141</v>
+      </c>
+      <c r="N4">
+        <v>15.04414951267484</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>11.516350690805</v>
+      </c>
+      <c r="C5">
+        <v>8.325577116198742</v>
+      </c>
+      <c r="D5">
+        <v>10.06243678199842</v>
+      </c>
+      <c r="E5">
+        <v>10.13785126110534</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>39.19590467104326</v>
+      </c>
+      <c r="H5">
+        <v>13.08451728442981</v>
+      </c>
+      <c r="I5">
+        <v>19.77951193137018</v>
+      </c>
+      <c r="J5">
+        <v>5.273114880186838</v>
+      </c>
+      <c r="K5">
+        <v>10.86620378740271</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12.53902659148092</v>
+      </c>
+      <c r="N5">
+        <v>15.0962744752147</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>11.48014548333346</v>
+      </c>
+      <c r="C6">
+        <v>8.30083041565336</v>
+      </c>
+      <c r="D6">
+        <v>10.04854645200314</v>
+      </c>
+      <c r="E6">
+        <v>10.12861131690777</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>39.16236430363138</v>
+      </c>
+      <c r="H6">
+        <v>13.08325992696202</v>
+      </c>
+      <c r="I6">
+        <v>19.77802935820547</v>
+      </c>
+      <c r="J6">
+        <v>5.273940788799</v>
+      </c>
+      <c r="K6">
+        <v>10.83708076696029</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>12.51927386643583</v>
+      </c>
+      <c r="N6">
+        <v>15.10498663436456</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>11.72962963692245</v>
+      </c>
+      <c r="C7">
+        <v>8.471589973548115</v>
+      </c>
+      <c r="D7">
+        <v>10.14514494278365</v>
+      </c>
+      <c r="E7">
+        <v>10.19312440338047</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>39.39749244279499</v>
+      </c>
+      <c r="H7">
+        <v>13.09267546835035</v>
+      </c>
+      <c r="I7">
+        <v>19.78945150851481</v>
+      </c>
+      <c r="J7">
+        <v>5.268358933090391</v>
+      </c>
+      <c r="K7">
+        <v>11.03816984687392</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>12.65640195768952</v>
+      </c>
+      <c r="N7">
+        <v>15.04484867984099</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>12.83261245226178</v>
+      </c>
+      <c r="C8">
+        <v>9.199214941105215</v>
+      </c>
+      <c r="D8">
+        <v>10.57523680505768</v>
+      </c>
+      <c r="E8">
+        <v>10.48686054802823</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>40.49232841540969</v>
+      </c>
+      <c r="H8">
+        <v>13.15171539146955</v>
+      </c>
+      <c r="I8">
+        <v>19.86869625203623</v>
+      </c>
+      <c r="J8">
+        <v>5.247516927639332</v>
+      </c>
+      <c r="K8">
+        <v>11.89798997952901</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>13.26091451323697</v>
+      </c>
+      <c r="N8">
+        <v>14.78770883830076</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>14.94388665155075</v>
+      </c>
+      <c r="C9">
+        <v>10.52678822139351</v>
+      </c>
+      <c r="D9">
+        <v>11.42593973785036</v>
+      </c>
+      <c r="E9">
+        <v>11.09262310442769</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>42.84252180378775</v>
+      </c>
+      <c r="H9">
+        <v>13.33479232112059</v>
+      </c>
+      <c r="I9">
+        <v>20.13581391610003</v>
+      </c>
+      <c r="J9">
+        <v>5.220842736303745</v>
+      </c>
+      <c r="K9">
+        <v>13.72018647773584</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>14.43435531734978</v>
+      </c>
+      <c r="N9">
+        <v>14.31287305974208</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>16.34933045358665</v>
+      </c>
+      <c r="C10">
+        <v>11.47785081248674</v>
+      </c>
+      <c r="D10">
+        <v>12.0505080006806</v>
+      </c>
+      <c r="E10">
+        <v>11.55349150481186</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>44.69057675303426</v>
+      </c>
+      <c r="H10">
+        <v>13.51441209612357</v>
+      </c>
+      <c r="I10">
+        <v>20.40757578847703</v>
+      </c>
+      <c r="J10">
+        <v>5.210479152856289</v>
+      </c>
+      <c r="K10">
+        <v>15.00505039274015</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>15.28196105042647</v>
+      </c>
+      <c r="N10">
+        <v>13.98189729982157</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>16.95807226799577</v>
+      </c>
+      <c r="C11">
+        <v>11.9126985730673</v>
+      </c>
+      <c r="D11">
+        <v>12.33373524403483</v>
+      </c>
+      <c r="E11">
+        <v>11.76616899127975</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>45.55725085488721</v>
+      </c>
+      <c r="H11">
+        <v>13.60680593059405</v>
+      </c>
+      <c r="I11">
+        <v>20.54919721542106</v>
+      </c>
+      <c r="J11">
+        <v>5.207906660615799</v>
+      </c>
+      <c r="K11">
+        <v>15.56196599407195</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>15.66325362815002</v>
+      </c>
+      <c r="N11">
+        <v>13.83524668453938</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>17.18427457623688</v>
+      </c>
+      <c r="C12">
+        <v>12.07469238777903</v>
+      </c>
+      <c r="D12">
+        <v>12.44080646411616</v>
+      </c>
+      <c r="E12">
+        <v>11.84711131187544</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>45.88915715988774</v>
+      </c>
+      <c r="H12">
+        <v>13.64340292384269</v>
+      </c>
+      <c r="I12">
+        <v>20.60554499955676</v>
+      </c>
+      <c r="J12">
+        <v>5.207252810098121</v>
+      </c>
+      <c r="K12">
+        <v>15.76897799623569</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>15.80695139896316</v>
+      </c>
+      <c r="N12">
+        <v>13.78028398809398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>17.13574835207466</v>
+      </c>
+      <c r="C13">
+        <v>12.03992197759071</v>
+      </c>
+      <c r="D13">
+        <v>12.41775549773941</v>
+      </c>
+      <c r="E13">
+        <v>11.8296612713376</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>45.81751001915607</v>
+      </c>
+      <c r="H13">
+        <v>13.63544834361406</v>
+      </c>
+      <c r="I13">
+        <v>20.59328646703046</v>
+      </c>
+      <c r="J13">
+        <v>5.20737917840034</v>
+      </c>
+      <c r="K13">
+        <v>15.72456539787837</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15.77603513486419</v>
+      </c>
+      <c r="N13">
+        <v>13.79209563584876</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>16.97676803776502</v>
+      </c>
+      <c r="C14">
+        <v>11.92607910846323</v>
+      </c>
+      <c r="D14">
+        <v>12.34254793508841</v>
+      </c>
+      <c r="E14">
+        <v>11.77282017152276</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>45.58448255397758</v>
+      </c>
+      <c r="H14">
+        <v>13.60978410675303</v>
+      </c>
+      <c r="I14">
+        <v>20.55377773443942</v>
+      </c>
+      <c r="J14">
+        <v>5.207846375290226</v>
+      </c>
+      <c r="K14">
+        <v>15.57907424588998</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>15.6750898978615</v>
+      </c>
+      <c r="N14">
+        <v>13.83071337257504</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>16.8788286949526</v>
+      </c>
+      <c r="C15">
+        <v>11.85600081880167</v>
+      </c>
+      <c r="D15">
+        <v>12.29645625258282</v>
+      </c>
+      <c r="E15">
+        <v>11.73805547467354</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>45.4422301719757</v>
+      </c>
+      <c r="H15">
+        <v>13.59427581669035</v>
+      </c>
+      <c r="I15">
+        <v>20.52993548933248</v>
+      </c>
+      <c r="J15">
+        <v>5.208174638173128</v>
+      </c>
+      <c r="K15">
+        <v>15.4894540685196</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>15.61316639912599</v>
+      </c>
+      <c r="N15">
+        <v>13.85444247996878</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>16.30893914309986</v>
+      </c>
+      <c r="C16">
+        <v>11.44905488441314</v>
+      </c>
+      <c r="D16">
+        <v>12.03197569724349</v>
+      </c>
+      <c r="E16">
+        <v>11.53965078013285</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>44.63445813087664</v>
+      </c>
+      <c r="H16">
+        <v>13.50859514515694</v>
+      </c>
+      <c r="I16">
+        <v>20.39869377646785</v>
+      </c>
+      <c r="J16">
+        <v>5.210691403949788</v>
+      </c>
+      <c r="K16">
+        <v>14.96810694954365</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>15.25694974118263</v>
+      </c>
+      <c r="N16">
+        <v>13.99156059816634</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>15.95155165752776</v>
+      </c>
+      <c r="C17">
+        <v>11.19457770346207</v>
+      </c>
+      <c r="D17">
+        <v>11.86945549308176</v>
+      </c>
+      <c r="E17">
+        <v>11.41868818983927</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>44.14554958148549</v>
+      </c>
+      <c r="H17">
+        <v>13.45882080075405</v>
+      </c>
+      <c r="I17">
+        <v>20.32288306685889</v>
+      </c>
+      <c r="J17">
+        <v>5.212792443402963</v>
+      </c>
+      <c r="K17">
+        <v>14.64127386788885</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.03726632051517</v>
+      </c>
+      <c r="N17">
+        <v>14.07668477548624</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>15.74310602698112</v>
+      </c>
+      <c r="C18">
+        <v>11.04641574367498</v>
+      </c>
+      <c r="D18">
+        <v>11.77589654916604</v>
+      </c>
+      <c r="E18">
+        <v>11.34939991665262</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>43.86678820106617</v>
+      </c>
+      <c r="H18">
+        <v>13.43119309049868</v>
+      </c>
+      <c r="I18">
+        <v>20.28096466633651</v>
+      </c>
+      <c r="J18">
+        <v>5.214201733078981</v>
+      </c>
+      <c r="K18">
+        <v>14.45068718901446</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14.91050982607016</v>
+      </c>
+      <c r="N18">
+        <v>14.12601347239589</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>15.67203176337213</v>
+      </c>
+      <c r="C19">
+        <v>10.99671211954214</v>
+      </c>
+      <c r="D19">
+        <v>11.74420689330834</v>
+      </c>
+      <c r="E19">
+        <v>11.32599025003137</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>43.77282547353875</v>
+      </c>
+      <c r="H19">
+        <v>13.4220085714514</v>
+      </c>
+      <c r="I19">
+        <v>20.26705740780588</v>
+      </c>
+      <c r="J19">
+        <v>5.214713025886786</v>
+      </c>
+      <c r="K19">
+        <v>14.38570857979237</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14.86752601834916</v>
+      </c>
+      <c r="N19">
+        <v>14.14277825193928</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>15.98989423317091</v>
+      </c>
+      <c r="C20">
+        <v>11.22185244064715</v>
+      </c>
+      <c r="D20">
+        <v>11.88676491575164</v>
+      </c>
+      <c r="E20">
+        <v>11.43153547490049</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>44.19734181625259</v>
+      </c>
+      <c r="H20">
+        <v>13.46401522197977</v>
+      </c>
+      <c r="I20">
+        <v>20.33077781688199</v>
+      </c>
+      <c r="J20">
+        <v>5.212547912984957</v>
+      </c>
+      <c r="K20">
+        <v>14.6763343913672</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.06069402423426</v>
+      </c>
+      <c r="N20">
+        <v>14.06758507654643</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>17.02358080896075</v>
+      </c>
+      <c r="C21">
+        <v>11.95958955595403</v>
+      </c>
+      <c r="D21">
+        <v>12.36464347918717</v>
+      </c>
+      <c r="E21">
+        <v>11.78950496144665</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>45.65282757562169</v>
+      </c>
+      <c r="H21">
+        <v>13.61727804426646</v>
+      </c>
+      <c r="I21">
+        <v>20.56530756441102</v>
+      </c>
+      <c r="J21">
+        <v>5.207700353307098</v>
+      </c>
+      <c r="K21">
+        <v>15.62191311487354</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>15.70475915916358</v>
+      </c>
+      <c r="N21">
+        <v>13.81935483480498</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>17.67404735187658</v>
+      </c>
+      <c r="C22">
+        <v>12.42619401836333</v>
+      </c>
+      <c r="D22">
+        <v>12.67589603190662</v>
+      </c>
+      <c r="E22">
+        <v>12.02581652423434</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>46.62573804276245</v>
+      </c>
+      <c r="H22">
+        <v>13.72686052799129</v>
+      </c>
+      <c r="I22">
+        <v>20.73449613900472</v>
+      </c>
+      <c r="J22">
+        <v>5.206405460360293</v>
+      </c>
+      <c r="K22">
+        <v>16.21733228221771</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.12165395803868</v>
+      </c>
+      <c r="N22">
+        <v>13.66045513172538</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>17.32914872527488</v>
+      </c>
+      <c r="C23">
+        <v>12.17855900915503</v>
+      </c>
+      <c r="D23">
+        <v>12.50988639274097</v>
+      </c>
+      <c r="E23">
+        <v>11.89948469263117</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>46.10449529493639</v>
+      </c>
+      <c r="H23">
+        <v>13.66748807724539</v>
+      </c>
+      <c r="I23">
+        <v>20.64269739214208</v>
+      </c>
+      <c r="J23">
+        <v>5.206920877453893</v>
+      </c>
+      <c r="K23">
+        <v>15.9015814995082</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>15.89953808424113</v>
+      </c>
+      <c r="N23">
+        <v>13.7449542161155</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>15.97256883943058</v>
+      </c>
+      <c r="C24">
+        <v>11.20952732874838</v>
+      </c>
+      <c r="D24">
+        <v>11.87893970757754</v>
+      </c>
+      <c r="E24">
+        <v>11.42572642158709</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>44.1739193228633</v>
+      </c>
+      <c r="H24">
+        <v>13.46166375156085</v>
+      </c>
+      <c r="I24">
+        <v>20.32720342049352</v>
+      </c>
+      <c r="J24">
+        <v>5.212657838870538</v>
+      </c>
+      <c r="K24">
+        <v>14.660491901351</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.05010377884908</v>
+      </c>
+      <c r="N24">
+        <v>14.07169783726101</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>14.39864436570478</v>
+      </c>
+      <c r="C25">
+        <v>10.17867537109272</v>
+      </c>
+      <c r="D25">
+        <v>11.1955654091784</v>
+      </c>
+      <c r="E25">
+        <v>10.92581344044114</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>42.1852390058742</v>
+      </c>
+      <c r="H25">
+        <v>13.27763889170336</v>
+      </c>
+      <c r="I25">
+        <v>20.05082665046205</v>
+      </c>
+      <c r="J25">
+        <v>5.226481258042415</v>
+      </c>
+      <c r="K25">
+        <v>13.22202989997629</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14.11900503875314</v>
+      </c>
+      <c r="N25">
+        <v>14.43819154553466</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.14152062979511</v>
+        <v>12.56672549018209</v>
       </c>
       <c r="C2">
-        <v>9.389812848214591</v>
+        <v>9.181195045256342</v>
       </c>
       <c r="D2">
-        <v>10.69246805136563</v>
+        <v>14.60583362648407</v>
       </c>
       <c r="E2">
-        <v>10.5685527167337</v>
+        <v>15.61458429709529</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.80281725495335</v>
+        <v>51.5342437620673</v>
       </c>
       <c r="H2">
-        <v>13.17211508220878</v>
+        <v>19.94444965629752</v>
       </c>
       <c r="I2">
-        <v>19.89745286413498</v>
+        <v>28.96020859647383</v>
       </c>
       <c r="J2">
-        <v>5.242810262421087</v>
+        <v>9.144070173480831</v>
       </c>
       <c r="K2">
-        <v>12.12386071488046</v>
+        <v>13.57076457365367</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.42420197238306</v>
+        <v>18.69031159215359</v>
       </c>
       <c r="N2">
-        <v>14.72003311620519</v>
+        <v>22.36115642943463</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.25022292352572</v>
+        <v>12.38280637679442</v>
       </c>
       <c r="C3">
-        <v>8.829601194830408</v>
+        <v>9.062479302399026</v>
       </c>
       <c r="D3">
-        <v>10.35316534630656</v>
+        <v>14.58296764013532</v>
       </c>
       <c r="E3">
-        <v>10.33394905038475</v>
+        <v>15.6148696273072</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.91781856118672</v>
+        <v>51.49286752715061</v>
       </c>
       <c r="H3">
-        <v>13.11794719989588</v>
+        <v>19.97925100856749</v>
       </c>
       <c r="I3">
-        <v>19.82232834137779</v>
+        <v>29.01208914706603</v>
       </c>
       <c r="J3">
-        <v>5.257522642474476</v>
+        <v>9.160929162066065</v>
       </c>
       <c r="K3">
-        <v>11.46068307038176</v>
+        <v>13.45769253230488</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.94992989176451</v>
+        <v>18.65447923580069</v>
       </c>
       <c r="N3">
-        <v>14.91854282466903</v>
+        <v>22.42013895532554</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7325241518467</v>
+        <v>12.27175236969205</v>
       </c>
       <c r="C4">
-        <v>8.473574298600301</v>
+        <v>8.991333051318394</v>
       </c>
       <c r="D4">
-        <v>10.14627768519526</v>
+        <v>14.57184295039382</v>
       </c>
       <c r="E4">
-        <v>10.19388437012217</v>
+        <v>15.61781679741145</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.40027513645361</v>
+        <v>51.47956012733278</v>
       </c>
       <c r="H4">
-        <v>13.09279500091844</v>
+        <v>20.00373096495198</v>
       </c>
       <c r="I4">
-        <v>19.78960055890622</v>
+        <v>29.04884669448973</v>
       </c>
       <c r="J4">
-        <v>5.268295666273325</v>
+        <v>9.172120040001008</v>
       </c>
       <c r="K4">
-        <v>11.04050838071262</v>
+        <v>13.39099717771902</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.65800671152141</v>
+        <v>18.63604570694591</v>
       </c>
       <c r="N4">
-        <v>15.04414951267484</v>
+        <v>22.45825187456145</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.516350690805</v>
+        <v>12.22702752841928</v>
       </c>
       <c r="C5">
-        <v>8.325577116198742</v>
+        <v>8.962814812570109</v>
       </c>
       <c r="D5">
-        <v>10.06243678199842</v>
+        <v>14.56804582714329</v>
       </c>
       <c r="E5">
-        <v>10.13785126110534</v>
+        <v>15.61971562585886</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.19590467104326</v>
+        <v>51.47718111666681</v>
       </c>
       <c r="H5">
-        <v>13.08451728442981</v>
+        <v>20.01448851701979</v>
       </c>
       <c r="I5">
-        <v>19.77951193137018</v>
+        <v>29.06505668783105</v>
       </c>
       <c r="J5">
-        <v>5.273114880186838</v>
+        <v>9.176891828623795</v>
       </c>
       <c r="K5">
-        <v>10.86620378740271</v>
+        <v>13.36453212833272</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.53902659148092</v>
+        <v>18.62943658330837</v>
       </c>
       <c r="N5">
-        <v>15.0962744752147</v>
+        <v>22.47426120477641</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48014548333346</v>
+        <v>12.21963477294649</v>
       </c>
       <c r="C6">
-        <v>8.30083041565336</v>
+        <v>8.958109052694795</v>
       </c>
       <c r="D6">
-        <v>10.04854645200314</v>
+        <v>14.5674598710908</v>
       </c>
       <c r="E6">
-        <v>10.12861131690777</v>
+        <v>15.6200730898584</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.16236430363138</v>
+        <v>51.47696993471634</v>
       </c>
       <c r="H6">
-        <v>13.08325992696202</v>
+        <v>20.01632199480098</v>
       </c>
       <c r="I6">
-        <v>19.77802935820547</v>
+        <v>29.0678226372471</v>
       </c>
       <c r="J6">
-        <v>5.273940788799</v>
+        <v>9.177696959519622</v>
       </c>
       <c r="K6">
-        <v>10.83708076696029</v>
+        <v>13.36018150527414</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.51927386643583</v>
+        <v>18.62839381215921</v>
       </c>
       <c r="N6">
-        <v>15.10498663436456</v>
+        <v>22.47694843852808</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.72962963692245</v>
+        <v>12.27114696847556</v>
       </c>
       <c r="C7">
-        <v>8.471589973548115</v>
+        <v>8.990946477276408</v>
       </c>
       <c r="D7">
-        <v>10.14514494278365</v>
+        <v>14.5717887560213</v>
       </c>
       <c r="E7">
-        <v>10.19312440338047</v>
+        <v>15.61783957934091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.39749244279499</v>
+        <v>51.47951571805622</v>
       </c>
       <c r="H7">
-        <v>13.09267546835035</v>
+        <v>20.00387288074582</v>
       </c>
       <c r="I7">
-        <v>19.78945150851481</v>
+        <v>29.0490603264682</v>
       </c>
       <c r="J7">
-        <v>5.268358933090391</v>
+        <v>9.172183537546145</v>
       </c>
       <c r="K7">
-        <v>11.03816984687392</v>
+        <v>13.39063733576111</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.65640195768952</v>
+        <v>18.63595291223168</v>
       </c>
       <c r="N7">
-        <v>15.04484867984099</v>
+        <v>22.45846584540384</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.83261245226178</v>
+        <v>12.50295736542654</v>
       </c>
       <c r="C8">
-        <v>9.199214941105215</v>
+        <v>9.139921095764677</v>
       </c>
       <c r="D8">
-        <v>10.57523680505768</v>
+        <v>14.59734651243376</v>
       </c>
       <c r="E8">
-        <v>10.48686054802823</v>
+        <v>15.61410791467414</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.49232841540969</v>
+        <v>51.51746804439723</v>
       </c>
       <c r="H8">
-        <v>13.15171539146955</v>
+        <v>19.95580290705334</v>
       </c>
       <c r="I8">
-        <v>19.86869625203623</v>
+        <v>28.97707840864084</v>
       </c>
       <c r="J8">
-        <v>5.247516927639332</v>
+        <v>9.14970914364479</v>
       </c>
       <c r="K8">
-        <v>11.89798997952901</v>
+        <v>13.53122706255887</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.26091451323697</v>
+        <v>18.67721967136108</v>
       </c>
       <c r="N8">
-        <v>14.78770883830076</v>
+        <v>22.38110033185594</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94388665155075</v>
+        <v>12.96975775978694</v>
       </c>
       <c r="C9">
-        <v>10.52678822139351</v>
+        <v>9.444313231863299</v>
       </c>
       <c r="D9">
-        <v>11.42593973785036</v>
+        <v>14.67042977444096</v>
       </c>
       <c r="E9">
-        <v>11.09262310442769</v>
+        <v>15.62873935350962</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.84252180378775</v>
+        <v>51.68771559277616</v>
       </c>
       <c r="H9">
-        <v>13.33479232112059</v>
+        <v>19.88625826272648</v>
       </c>
       <c r="I9">
-        <v>20.13581391610003</v>
+        <v>28.87489954106653</v>
       </c>
       <c r="J9">
-        <v>5.220842736303745</v>
+        <v>9.11228191544501</v>
       </c>
       <c r="K9">
-        <v>13.72018647773584</v>
+        <v>13.82734700545736</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.43435531734978</v>
+        <v>18.78617747931795</v>
       </c>
       <c r="N9">
-        <v>14.31287305974208</v>
+        <v>22.24440082182654</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.34933045358665</v>
+        <v>13.3166339196612</v>
       </c>
       <c r="C10">
-        <v>11.47785081248674</v>
+        <v>9.673247457710485</v>
       </c>
       <c r="D10">
-        <v>12.0505080006806</v>
+        <v>14.73786889658698</v>
       </c>
       <c r="E10">
-        <v>11.55349150481186</v>
+        <v>15.65279424514011</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.69057675303426</v>
+        <v>51.87085774695749</v>
       </c>
       <c r="H10">
-        <v>13.51441209612357</v>
+        <v>19.85027166881792</v>
       </c>
       <c r="I10">
-        <v>20.40757578847703</v>
+        <v>28.82368849848483</v>
       </c>
       <c r="J10">
-        <v>5.210479152856289</v>
+        <v>9.088814487845676</v>
       </c>
       <c r="K10">
-        <v>15.00505039274015</v>
+        <v>14.05561283893146</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.28196105042647</v>
+        <v>18.88290909440031</v>
       </c>
       <c r="N10">
-        <v>13.98189729982157</v>
+        <v>22.15306235084699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.95807226799577</v>
+        <v>13.47455243368909</v>
       </c>
       <c r="C11">
-        <v>11.9126985730673</v>
+        <v>9.778083347187561</v>
       </c>
       <c r="D11">
-        <v>12.33373524403483</v>
+        <v>14.77146753302761</v>
       </c>
       <c r="E11">
-        <v>11.76616899127975</v>
+        <v>15.66660420863257</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.55725085488721</v>
+        <v>51.96665880518575</v>
       </c>
       <c r="H11">
-        <v>13.60680593059405</v>
+        <v>19.83718712052466</v>
       </c>
       <c r="I11">
-        <v>20.54919721542106</v>
+        <v>28.80558949930007</v>
       </c>
       <c r="J11">
-        <v>5.207906660615799</v>
+        <v>9.079009346923753</v>
       </c>
       <c r="K11">
-        <v>15.56196599407195</v>
+        <v>14.16139432144078</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.66325362815002</v>
+        <v>18.9304351212267</v>
       </c>
       <c r="N11">
-        <v>13.83524668453938</v>
+        <v>22.11347272296692</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.18427457623688</v>
+        <v>13.53431020028003</v>
       </c>
       <c r="C12">
-        <v>12.07469238777903</v>
+        <v>9.817843417600523</v>
       </c>
       <c r="D12">
-        <v>12.44080646411616</v>
+        <v>14.78460392089008</v>
       </c>
       <c r="E12">
-        <v>11.84711131187544</v>
+        <v>15.67224352575797</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.88915715988774</v>
+        <v>52.00471776369396</v>
       </c>
       <c r="H12">
-        <v>13.64340292384269</v>
+        <v>19.83270514852605</v>
       </c>
       <c r="I12">
-        <v>20.60554499955676</v>
+        <v>28.7994842510209</v>
       </c>
       <c r="J12">
-        <v>5.207252810098121</v>
+        <v>9.075421202589101</v>
       </c>
       <c r="K12">
-        <v>15.76897799623569</v>
+        <v>14.20169708322261</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.80695139896316</v>
+        <v>18.9489287866233</v>
       </c>
       <c r="N12">
-        <v>13.78028398809398</v>
+        <v>22.09876225313992</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.13574835207466</v>
+        <v>13.52144312682534</v>
       </c>
       <c r="C13">
-        <v>12.03992197759071</v>
+        <v>9.809278268729384</v>
       </c>
       <c r="D13">
-        <v>12.41775549773941</v>
+        <v>14.78175649338445</v>
       </c>
       <c r="E13">
-        <v>11.8296612713376</v>
+        <v>15.67101081629588</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.81751001915607</v>
+        <v>51.99644212578765</v>
       </c>
       <c r="H13">
-        <v>13.63544834361406</v>
+        <v>19.83364938638056</v>
       </c>
       <c r="I13">
-        <v>20.59328646703046</v>
+        <v>28.80076582272758</v>
       </c>
       <c r="J13">
-        <v>5.20737917840034</v>
+        <v>9.076188425713257</v>
       </c>
       <c r="K13">
-        <v>15.72456539787837</v>
+        <v>14.19300677704107</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.77603513486419</v>
+        <v>18.94492392360086</v>
       </c>
       <c r="N13">
-        <v>13.79209563584876</v>
+        <v>22.10191791743427</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.97676803776502</v>
+        <v>13.47946993198042</v>
       </c>
       <c r="C14">
-        <v>11.92607910846323</v>
+        <v>9.781353428082443</v>
       </c>
       <c r="D14">
-        <v>12.34254793508841</v>
+        <v>14.77254002789349</v>
       </c>
       <c r="E14">
-        <v>11.77282017152276</v>
+        <v>15.66705996157512</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.58448255397758</v>
+        <v>51.96975433341196</v>
       </c>
       <c r="H14">
-        <v>13.60978410675303</v>
+        <v>19.83680890754033</v>
       </c>
       <c r="I14">
-        <v>20.55377773443942</v>
+        <v>28.80507221126318</v>
       </c>
       <c r="J14">
-        <v>5.207846375290226</v>
+        <v>9.078711647670362</v>
       </c>
       <c r="K14">
-        <v>15.57907424588998</v>
+        <v>14.16470532511759</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.6750898978615</v>
+        <v>18.93194671287736</v>
       </c>
       <c r="N14">
-        <v>13.83071337257504</v>
+        <v>22.11225685067585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.8788286949526</v>
+        <v>13.45375284235709</v>
       </c>
       <c r="C15">
-        <v>11.85600081880167</v>
+        <v>9.764255467376211</v>
       </c>
       <c r="D15">
-        <v>12.29645625258282</v>
+        <v>14.76694829701124</v>
       </c>
       <c r="E15">
-        <v>11.73805547467354</v>
+        <v>15.66469323448675</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.4422301719757</v>
+        <v>51.95363877689086</v>
       </c>
       <c r="H15">
-        <v>13.59427581669035</v>
+        <v>19.83880579449491</v>
       </c>
       <c r="I15">
-        <v>20.52993548933248</v>
+        <v>28.80780749784894</v>
       </c>
       <c r="J15">
-        <v>5.208174638173128</v>
+        <v>9.080273444209727</v>
       </c>
       <c r="K15">
-        <v>15.4894540685196</v>
+        <v>14.14740085129953</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.61316639912599</v>
+        <v>18.92406216205622</v>
       </c>
       <c r="N15">
-        <v>13.85444247996878</v>
+        <v>22.11862635462103</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.30893914309986</v>
+        <v>13.30631085617997</v>
       </c>
       <c r="C16">
-        <v>11.44905488441314</v>
+        <v>9.666406806426684</v>
       </c>
       <c r="D16">
-        <v>12.03197569724349</v>
+        <v>14.73573135611933</v>
       </c>
       <c r="E16">
-        <v>11.53965078013285</v>
+        <v>15.65194921970323</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.63445813087664</v>
+        <v>51.86484702458571</v>
       </c>
       <c r="H16">
-        <v>13.50859514515694</v>
+        <v>19.85119292871675</v>
       </c>
       <c r="I16">
-        <v>20.39869377646785</v>
+        <v>28.82497599026485</v>
       </c>
       <c r="J16">
-        <v>5.210691403949788</v>
+        <v>9.089472764083915</v>
       </c>
       <c r="K16">
-        <v>14.96810694954365</v>
+        <v>14.04873597901987</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.25694974118263</v>
+        <v>18.87987320219126</v>
       </c>
       <c r="N16">
-        <v>13.99156059816634</v>
+        <v>22.15568902157915</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.95155165752776</v>
+        <v>13.21584802158918</v>
       </c>
       <c r="C17">
-        <v>11.19457770346207</v>
+        <v>9.606529526402769</v>
       </c>
       <c r="D17">
-        <v>11.86945549308176</v>
+        <v>14.71732418087893</v>
       </c>
       <c r="E17">
-        <v>11.41868818983927</v>
+        <v>15.64486386036517</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.14554958148549</v>
+        <v>51.81356510646612</v>
       </c>
       <c r="H17">
-        <v>13.45882080075405</v>
+        <v>19.8596339261951</v>
       </c>
       <c r="I17">
-        <v>20.32288306685889</v>
+        <v>28.83684027766795</v>
       </c>
       <c r="J17">
-        <v>5.212792443402963</v>
+        <v>9.095338942588306</v>
       </c>
       <c r="K17">
-        <v>14.64127386788885</v>
+        <v>13.98868184254151</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.03726632051517</v>
+        <v>18.85366001136226</v>
       </c>
       <c r="N17">
-        <v>14.07668477548624</v>
+        <v>22.178927457366</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.74310602698112</v>
+        <v>13.1638312483594</v>
       </c>
       <c r="C18">
-        <v>11.04641574367498</v>
+        <v>9.572157158253457</v>
       </c>
       <c r="D18">
-        <v>11.77589654916604</v>
+        <v>14.70701215747873</v>
       </c>
       <c r="E18">
-        <v>11.34939991665262</v>
+        <v>15.64105860183854</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.86678820106617</v>
+        <v>51.78524563120129</v>
       </c>
       <c r="H18">
-        <v>13.43119309049868</v>
+        <v>19.86479823861319</v>
       </c>
       <c r="I18">
-        <v>20.28096466633651</v>
+        <v>28.84415343096084</v>
       </c>
       <c r="J18">
-        <v>5.214201733078981</v>
+        <v>9.098794948841007</v>
       </c>
       <c r="K18">
-        <v>14.45068718901446</v>
+        <v>13.95432513847573</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.91050982607016</v>
+        <v>18.8389150511616</v>
       </c>
       <c r="N18">
-        <v>14.12601347239589</v>
+        <v>22.1924781809274</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67203176337213</v>
+        <v>13.14622371286257</v>
       </c>
       <c r="C19">
-        <v>10.99671211954214</v>
+        <v>9.560532038669162</v>
       </c>
       <c r="D19">
-        <v>11.74420689330834</v>
+        <v>14.70356815888788</v>
       </c>
       <c r="E19">
-        <v>11.32599025003137</v>
+        <v>15.63981666026705</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.77282547353875</v>
+        <v>51.77585962364402</v>
       </c>
       <c r="H19">
-        <v>13.4220085714514</v>
+        <v>19.86659989165651</v>
       </c>
       <c r="I19">
-        <v>20.26705740780588</v>
+        <v>28.84671351017914</v>
       </c>
       <c r="J19">
-        <v>5.214713025886786</v>
+        <v>9.099979174828471</v>
       </c>
       <c r="K19">
-        <v>14.38570857979237</v>
+        <v>13.94272531855114</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.86752601834916</v>
+        <v>18.83398000367695</v>
       </c>
       <c r="N19">
-        <v>14.14277825193928</v>
+        <v>22.19709794777122</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.98989423317091</v>
+        <v>13.22547682843014</v>
       </c>
       <c r="C20">
-        <v>11.22185244064715</v>
+        <v>9.612896865122432</v>
       </c>
       <c r="D20">
-        <v>11.88676491575164</v>
+        <v>14.71925521014227</v>
       </c>
       <c r="E20">
-        <v>11.43153547490049</v>
+        <v>15.64559017680687</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.19734181625259</v>
+        <v>51.81890248710734</v>
       </c>
       <c r="H20">
-        <v>13.46401522197977</v>
+        <v>19.85870335597749</v>
       </c>
       <c r="I20">
-        <v>20.33077781688199</v>
+        <v>28.83552667225585</v>
       </c>
       <c r="J20">
-        <v>5.212547912984957</v>
+        <v>9.09470600002248</v>
       </c>
       <c r="K20">
-        <v>14.6763343913672</v>
+        <v>13.99505582015211</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.06069402423426</v>
+        <v>18.85641614129558</v>
       </c>
       <c r="N20">
-        <v>14.06758507654643</v>
+        <v>22.17643458682155</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.02358080896075</v>
+        <v>13.4918001019458</v>
       </c>
       <c r="C21">
-        <v>11.95958955595403</v>
+        <v>9.789554279167122</v>
       </c>
       <c r="D21">
-        <v>12.36464347918717</v>
+        <v>14.77523596532115</v>
       </c>
       <c r="E21">
-        <v>11.78950496144665</v>
+        <v>15.66820932368052</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.65282757562169</v>
+        <v>51.97754497268332</v>
       </c>
       <c r="H21">
-        <v>13.61727804426646</v>
+        <v>19.83586804403194</v>
       </c>
       <c r="I21">
-        <v>20.56530756441102</v>
+        <v>28.80378700014153</v>
       </c>
       <c r="J21">
-        <v>5.207700353307098</v>
+        <v>9.077967130217544</v>
       </c>
       <c r="K21">
-        <v>15.62191311487354</v>
+        <v>14.17301175116588</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.70475915916358</v>
+        <v>18.93574503912587</v>
       </c>
       <c r="N21">
-        <v>13.81935483480498</v>
+        <v>22.1092124273111</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67404735187658</v>
+        <v>13.66558322336655</v>
       </c>
       <c r="C22">
-        <v>12.42619401836333</v>
+        <v>9.905348309387591</v>
       </c>
       <c r="D22">
-        <v>12.67589603190662</v>
+        <v>14.81422829804274</v>
       </c>
       <c r="E22">
-        <v>12.02581652423434</v>
+        <v>15.6853793802751</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.62573804276245</v>
+        <v>52.09160066044676</v>
       </c>
       <c r="H22">
-        <v>13.72686052799129</v>
+        <v>19.82370013073085</v>
       </c>
       <c r="I22">
-        <v>20.73449613900472</v>
+        <v>28.78740618309268</v>
       </c>
       <c r="J22">
-        <v>5.206405460360293</v>
+        <v>9.067754892244745</v>
       </c>
       <c r="K22">
-        <v>16.21733228221771</v>
+        <v>14.29073212328534</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.12165395803868</v>
+        <v>18.9904805229186</v>
       </c>
       <c r="N22">
-        <v>13.66045513172538</v>
+        <v>22.066917973372</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32914872527488</v>
+        <v>13.57287641025146</v>
       </c>
       <c r="C23">
-        <v>12.17855900915503</v>
+        <v>9.843528456484798</v>
       </c>
       <c r="D23">
-        <v>12.50988639274097</v>
+        <v>14.7931995565191</v>
       </c>
       <c r="E23">
-        <v>11.89948469263117</v>
+        <v>15.6759978916339</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.10449529493639</v>
+        <v>52.02978324257954</v>
       </c>
       <c r="H23">
-        <v>13.66748807724539</v>
+        <v>19.8299420900399</v>
       </c>
       <c r="I23">
-        <v>20.64269739214208</v>
+        <v>28.79574942115882</v>
       </c>
       <c r="J23">
-        <v>5.206920877453893</v>
+        <v>9.073138881020672</v>
       </c>
       <c r="K23">
-        <v>15.9015814995082</v>
+        <v>14.22778415944107</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.89953808424113</v>
+        <v>18.96100621936704</v>
       </c>
       <c r="N23">
-        <v>13.7449542161155</v>
+        <v>22.08934156112246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.97256883943058</v>
+        <v>13.22112366665152</v>
       </c>
       <c r="C24">
-        <v>11.20952732874838</v>
+        <v>9.610018026734013</v>
       </c>
       <c r="D24">
-        <v>11.87893970757754</v>
+        <v>14.71838134872544</v>
       </c>
       <c r="E24">
-        <v>11.42572642158709</v>
+        <v>15.6452609735157</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.1739193228633</v>
+        <v>51.81648583286398</v>
       </c>
       <c r="H24">
-        <v>13.46166375156085</v>
+        <v>19.85912309652915</v>
       </c>
       <c r="I24">
-        <v>20.32720342049352</v>
+        <v>28.83611902004587</v>
       </c>
       <c r="J24">
-        <v>5.212657838870538</v>
+        <v>9.094991893352029</v>
       </c>
       <c r="K24">
-        <v>14.660491901351</v>
+        <v>13.99217361518934</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.05010377884908</v>
+        <v>18.85516908075014</v>
       </c>
       <c r="N24">
-        <v>14.07169783726101</v>
+        <v>22.17756101966325</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39864436570478</v>
+        <v>12.8425343469026</v>
       </c>
       <c r="C25">
-        <v>10.17867537109272</v>
+        <v>9.360878938427696</v>
       </c>
       <c r="D25">
-        <v>11.1955654091784</v>
+        <v>14.64822439145532</v>
       </c>
       <c r="E25">
-        <v>10.92581344044114</v>
+        <v>15.62243792463835</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.1852390058742</v>
+        <v>51.63142817569978</v>
       </c>
       <c r="H25">
-        <v>13.27763889170336</v>
+        <v>19.90242114806097</v>
       </c>
       <c r="I25">
-        <v>20.05082665046205</v>
+        <v>28.89835793183608</v>
       </c>
       <c r="J25">
-        <v>5.226481258042415</v>
+        <v>9.121697713490839</v>
       </c>
       <c r="K25">
-        <v>13.22202989997629</v>
+        <v>13.74522884917076</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.11900503875314</v>
+        <v>18.75373978976839</v>
       </c>
       <c r="N25">
-        <v>14.43819154553466</v>
+        <v>22.27978040298231</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56672549018209</v>
+        <v>13.14152062979514</v>
       </c>
       <c r="C2">
-        <v>9.181195045256342</v>
+        <v>9.389812848214593</v>
       </c>
       <c r="D2">
-        <v>14.60583362648407</v>
+        <v>10.69246805136546</v>
       </c>
       <c r="E2">
-        <v>15.61458429709529</v>
+        <v>10.56855271673358</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.5342437620673</v>
+        <v>40.80281725495318</v>
       </c>
       <c r="H2">
-        <v>19.94444965629752</v>
+        <v>13.17211508220872</v>
       </c>
       <c r="I2">
-        <v>28.96020859647383</v>
+        <v>19.89745286413488</v>
       </c>
       <c r="J2">
-        <v>9.144070173480831</v>
+        <v>5.242810262421141</v>
       </c>
       <c r="K2">
-        <v>13.57076457365367</v>
+        <v>12.12386071488044</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.69031159215359</v>
+        <v>13.424201972383</v>
       </c>
       <c r="N2">
-        <v>22.36115642943463</v>
+        <v>14.72003311620512</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38280637679442</v>
+        <v>12.25022292352571</v>
       </c>
       <c r="C3">
-        <v>9.062479302399026</v>
+        <v>8.829601194830419</v>
       </c>
       <c r="D3">
-        <v>14.58296764013532</v>
+        <v>10.35316534630654</v>
       </c>
       <c r="E3">
-        <v>15.6148696273072</v>
+        <v>10.33394905038474</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51.49286752715061</v>
+        <v>39.91781856118669</v>
       </c>
       <c r="H3">
-        <v>19.97925100856749</v>
+        <v>13.11794719989588</v>
       </c>
       <c r="I3">
-        <v>29.01208914706603</v>
+        <v>19.82232834137778</v>
       </c>
       <c r="J3">
-        <v>9.160929162066065</v>
+        <v>5.257522642474478</v>
       </c>
       <c r="K3">
-        <v>13.45769253230488</v>
+        <v>11.46068307038174</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.65447923580069</v>
+        <v>12.94992989176447</v>
       </c>
       <c r="N3">
-        <v>22.42013895532554</v>
+        <v>14.91854282466903</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.27175236969205</v>
+        <v>11.73252415184672</v>
       </c>
       <c r="C4">
-        <v>8.991333051318394</v>
+        <v>8.473574298600365</v>
       </c>
       <c r="D4">
-        <v>14.57184295039382</v>
+        <v>10.14627768519526</v>
       </c>
       <c r="E4">
-        <v>15.61781679741145</v>
+        <v>10.19388437012217</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.47956012733278</v>
+        <v>39.40027513645367</v>
       </c>
       <c r="H4">
-        <v>20.00373096495198</v>
+        <v>13.09279500091845</v>
       </c>
       <c r="I4">
-        <v>29.04884669448973</v>
+        <v>19.78960055890618</v>
       </c>
       <c r="J4">
-        <v>9.172120040001008</v>
+        <v>5.268295666273324</v>
       </c>
       <c r="K4">
-        <v>13.39099717771902</v>
+        <v>11.04050838071262</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.63604570694591</v>
+        <v>12.65800671152141</v>
       </c>
       <c r="N4">
-        <v>22.45825187456145</v>
+        <v>15.04414951267478</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.22702752841928</v>
+        <v>11.51635069080503</v>
       </c>
       <c r="C5">
-        <v>8.962814812570109</v>
+        <v>8.325577116198742</v>
       </c>
       <c r="D5">
-        <v>14.56804582714329</v>
+        <v>10.06243678199842</v>
       </c>
       <c r="E5">
-        <v>15.61971562585886</v>
+        <v>10.13785126110545</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.47718111666681</v>
+        <v>39.19590467104356</v>
       </c>
       <c r="H5">
-        <v>20.01448851701979</v>
+        <v>13.08451728442991</v>
       </c>
       <c r="I5">
-        <v>29.06505668783105</v>
+        <v>19.77951193137028</v>
       </c>
       <c r="J5">
-        <v>9.176891828623795</v>
+        <v>5.273114880186896</v>
       </c>
       <c r="K5">
-        <v>13.36453212833272</v>
+        <v>10.86620378740274</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.62943658330837</v>
+        <v>12.539026591481</v>
       </c>
       <c r="N5">
-        <v>22.47426120477641</v>
+        <v>15.09627447521476</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.21963477294649</v>
+        <v>11.48014548333345</v>
       </c>
       <c r="C6">
-        <v>8.958109052694795</v>
+        <v>8.300830415653333</v>
       </c>
       <c r="D6">
-        <v>14.5674598710908</v>
+        <v>10.04854645200313</v>
       </c>
       <c r="E6">
-        <v>15.6200730898584</v>
+        <v>10.12861131690777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.47696993471634</v>
+        <v>39.16236430363119</v>
       </c>
       <c r="H6">
-        <v>20.01632199480098</v>
+        <v>13.08325992696203</v>
       </c>
       <c r="I6">
-        <v>29.0678226372471</v>
+        <v>19.7780293582054</v>
       </c>
       <c r="J6">
-        <v>9.177696959519622</v>
+        <v>5.273940788799031</v>
       </c>
       <c r="K6">
-        <v>13.36018150527414</v>
+        <v>10.83708076696029</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.62839381215921</v>
+        <v>12.5192738664358</v>
       </c>
       <c r="N6">
-        <v>22.47694843852808</v>
+        <v>15.10498663436453</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27114696847556</v>
+        <v>11.72962963692244</v>
       </c>
       <c r="C7">
-        <v>8.990946477276408</v>
+        <v>8.471589973548076</v>
       </c>
       <c r="D7">
-        <v>14.5717887560213</v>
+        <v>10.14514494278373</v>
       </c>
       <c r="E7">
-        <v>15.61783957934091</v>
+        <v>10.19312440338057</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51.47951571805622</v>
+        <v>39.39749244279469</v>
       </c>
       <c r="H7">
-        <v>20.00387288074582</v>
+        <v>13.09267546835025</v>
       </c>
       <c r="I7">
-        <v>29.0490603264682</v>
+        <v>19.78945150851466</v>
       </c>
       <c r="J7">
-        <v>9.172183537546145</v>
+        <v>5.268358933090389</v>
       </c>
       <c r="K7">
-        <v>13.39063733576111</v>
+        <v>11.0381698468739</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.63595291223168</v>
+        <v>12.65640195768951</v>
       </c>
       <c r="N7">
-        <v>22.45846584540384</v>
+        <v>15.0448486798409</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.50295736542654</v>
+        <v>12.8326124522618</v>
       </c>
       <c r="C8">
-        <v>9.139921095764677</v>
+        <v>9.199214941105231</v>
       </c>
       <c r="D8">
-        <v>14.59734651243376</v>
+        <v>10.57523680505781</v>
       </c>
       <c r="E8">
-        <v>15.61410791467414</v>
+        <v>10.48686054802823</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.51746804439723</v>
+        <v>40.49232841540978</v>
       </c>
       <c r="H8">
-        <v>19.95580290705334</v>
+        <v>13.15171539146956</v>
       </c>
       <c r="I8">
-        <v>28.97707840864084</v>
+        <v>19.86869625203631</v>
       </c>
       <c r="J8">
-        <v>9.14970914364479</v>
+        <v>5.247516927639302</v>
       </c>
       <c r="K8">
-        <v>13.53122706255887</v>
+        <v>11.897989979529</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.67721967136108</v>
+        <v>13.26091451323698</v>
       </c>
       <c r="N8">
-        <v>22.38110033185594</v>
+        <v>14.78770883830082</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.96975775978694</v>
+        <v>14.9438866515508</v>
       </c>
       <c r="C9">
-        <v>9.444313231863299</v>
+        <v>10.52678822139348</v>
       </c>
       <c r="D9">
-        <v>14.67042977444096</v>
+        <v>11.42593973785041</v>
       </c>
       <c r="E9">
-        <v>15.62873935350962</v>
+        <v>11.09262310442773</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.68771559277616</v>
+        <v>42.84252180378743</v>
       </c>
       <c r="H9">
-        <v>19.88625826272648</v>
+        <v>13.33479232112046</v>
       </c>
       <c r="I9">
-        <v>28.87489954106653</v>
+        <v>20.13581391609981</v>
       </c>
       <c r="J9">
-        <v>9.11228191544501</v>
+        <v>5.220842736303744</v>
       </c>
       <c r="K9">
-        <v>13.82734700545736</v>
+        <v>13.72018647773588</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.78617747931795</v>
+        <v>14.43435531734976</v>
       </c>
       <c r="N9">
-        <v>22.24440082182654</v>
+        <v>14.31287305974189</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.3166339196612</v>
+        <v>16.34933045358665</v>
       </c>
       <c r="C10">
-        <v>9.673247457710485</v>
+        <v>11.47785081248673</v>
       </c>
       <c r="D10">
-        <v>14.73786889658698</v>
+        <v>12.05050800068067</v>
       </c>
       <c r="E10">
-        <v>15.65279424514011</v>
+        <v>11.55349150481188</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.87085774695749</v>
+        <v>44.69057675303436</v>
       </c>
       <c r="H10">
-        <v>19.85027166881792</v>
+        <v>13.51441209612364</v>
       </c>
       <c r="I10">
-        <v>28.82368849848483</v>
+        <v>20.40757578847711</v>
       </c>
       <c r="J10">
-        <v>9.088814487845676</v>
+        <v>5.210479152856292</v>
       </c>
       <c r="K10">
-        <v>14.05561283893146</v>
+        <v>15.00505039274015</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.88290909440031</v>
+        <v>15.28196105042649</v>
       </c>
       <c r="N10">
-        <v>22.15306235084699</v>
+        <v>13.98189729982163</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.47455243368909</v>
+        <v>16.95807226799585</v>
       </c>
       <c r="C11">
-        <v>9.778083347187561</v>
+        <v>11.91269857306726</v>
       </c>
       <c r="D11">
-        <v>14.77146753302761</v>
+        <v>12.33373524403474</v>
       </c>
       <c r="E11">
-        <v>15.66660420863257</v>
+        <v>11.76616899127976</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.96665880518575</v>
+        <v>45.5572508548871</v>
       </c>
       <c r="H11">
-        <v>19.83718712052466</v>
+        <v>13.60680593059408</v>
       </c>
       <c r="I11">
-        <v>28.80558949930007</v>
+        <v>20.54919721542097</v>
       </c>
       <c r="J11">
-        <v>9.079009346923753</v>
+        <v>5.207906660615836</v>
       </c>
       <c r="K11">
-        <v>14.16139432144078</v>
+        <v>15.56196599407199</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.9304351212267</v>
+        <v>15.66325362815003</v>
       </c>
       <c r="N11">
-        <v>22.11347272296692</v>
+        <v>13.8352466845393</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.53431020028003</v>
+        <v>17.18427457623691</v>
       </c>
       <c r="C12">
-        <v>9.817843417600523</v>
+        <v>12.074692387779</v>
       </c>
       <c r="D12">
-        <v>14.78460392089008</v>
+        <v>12.44080646411608</v>
       </c>
       <c r="E12">
-        <v>15.67224352575797</v>
+        <v>11.84711131187535</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.00471776369396</v>
+        <v>45.88915715988779</v>
       </c>
       <c r="H12">
-        <v>19.83270514852605</v>
+        <v>13.64340292384259</v>
       </c>
       <c r="I12">
-        <v>28.7994842510209</v>
+        <v>20.60554499955666</v>
       </c>
       <c r="J12">
-        <v>9.075421202589101</v>
+        <v>5.207252810098051</v>
       </c>
       <c r="K12">
-        <v>14.20169708322261</v>
+        <v>15.76897799623569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.9489287866233</v>
+        <v>15.80695139896315</v>
       </c>
       <c r="N12">
-        <v>22.09876225313992</v>
+        <v>13.78028398809384</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.52144312682534</v>
+        <v>17.13574835207461</v>
       </c>
       <c r="C13">
-        <v>9.809278268729384</v>
+        <v>12.03992197759071</v>
       </c>
       <c r="D13">
-        <v>14.78175649338445</v>
+        <v>12.41775549773945</v>
       </c>
       <c r="E13">
-        <v>15.67101081629588</v>
+        <v>11.82966127133765</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>51.99644212578765</v>
+        <v>45.81751001915622</v>
       </c>
       <c r="H13">
-        <v>19.83364938638056</v>
+        <v>13.6354483436141</v>
       </c>
       <c r="I13">
-        <v>28.80076582272758</v>
+        <v>20.59328646703061</v>
       </c>
       <c r="J13">
-        <v>9.076188425713257</v>
+        <v>5.207379178400398</v>
       </c>
       <c r="K13">
-        <v>14.19300677704107</v>
+        <v>15.72456539787832</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.94492392360086</v>
+        <v>15.77603513486423</v>
       </c>
       <c r="N13">
-        <v>22.10191791743427</v>
+        <v>13.79209563584885</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.47946993198042</v>
+        <v>16.97676803776495</v>
       </c>
       <c r="C14">
-        <v>9.781353428082443</v>
+        <v>11.92607910846318</v>
       </c>
       <c r="D14">
-        <v>14.77254002789349</v>
+        <v>12.34254793508835</v>
       </c>
       <c r="E14">
-        <v>15.66705996157512</v>
+        <v>11.77282017152274</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>51.96975433341196</v>
+        <v>45.58448255397779</v>
       </c>
       <c r="H14">
-        <v>19.83680890754033</v>
+        <v>13.6097841067531</v>
       </c>
       <c r="I14">
-        <v>28.80507221126318</v>
+        <v>20.55377773443955</v>
       </c>
       <c r="J14">
-        <v>9.078711647670362</v>
+        <v>5.207846375290229</v>
       </c>
       <c r="K14">
-        <v>14.16470532511759</v>
+        <v>15.57907424588989</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.93194671287736</v>
+        <v>15.67508989786153</v>
       </c>
       <c r="N14">
-        <v>22.11225685067585</v>
+        <v>13.8307133725751</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.45375284235709</v>
+        <v>16.87882869495271</v>
       </c>
       <c r="C15">
-        <v>9.764255467376211</v>
+        <v>11.85600081880165</v>
       </c>
       <c r="D15">
-        <v>14.76694829701124</v>
+        <v>12.29645625258277</v>
       </c>
       <c r="E15">
-        <v>15.66469323448675</v>
+        <v>11.73805547467357</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>51.95363877689086</v>
+        <v>45.44223017197562</v>
       </c>
       <c r="H15">
-        <v>19.83880579449491</v>
+        <v>13.59427581669027</v>
       </c>
       <c r="I15">
-        <v>28.80780749784894</v>
+        <v>20.52993548933232</v>
       </c>
       <c r="J15">
-        <v>9.080273444209727</v>
+        <v>5.208174638173181</v>
       </c>
       <c r="K15">
-        <v>14.14740085129953</v>
+        <v>15.48945406851969</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.92406216205622</v>
+        <v>15.61316639912598</v>
       </c>
       <c r="N15">
-        <v>22.11862635462103</v>
+        <v>13.85444247996869</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.30631085617997</v>
+        <v>16.30893914309991</v>
       </c>
       <c r="C16">
-        <v>9.666406806426684</v>
+        <v>11.44905488441306</v>
       </c>
       <c r="D16">
-        <v>14.73573135611933</v>
+        <v>12.03197569724348</v>
       </c>
       <c r="E16">
-        <v>15.65194921970323</v>
+        <v>11.5396507801328</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.86484702458571</v>
+        <v>44.63445813087659</v>
       </c>
       <c r="H16">
-        <v>19.85119292871675</v>
+        <v>13.50859514515694</v>
       </c>
       <c r="I16">
-        <v>28.82497599026485</v>
+        <v>20.39869377646776</v>
       </c>
       <c r="J16">
-        <v>9.089472764083915</v>
+        <v>5.210691403949733</v>
       </c>
       <c r="K16">
-        <v>14.04873597901987</v>
+        <v>14.96810694954365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.87987320219126</v>
+        <v>15.25694974118263</v>
       </c>
       <c r="N16">
-        <v>22.15568902157915</v>
+        <v>13.99156059816628</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.21584802158918</v>
+        <v>15.95155165752777</v>
       </c>
       <c r="C17">
-        <v>9.606529526402769</v>
+        <v>11.19457770346199</v>
       </c>
       <c r="D17">
-        <v>14.71732418087893</v>
+        <v>11.86945549308177</v>
       </c>
       <c r="E17">
-        <v>15.64486386036517</v>
+        <v>11.41868818983929</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.81356510646612</v>
+        <v>44.14554958148555</v>
       </c>
       <c r="H17">
-        <v>19.8596339261951</v>
+        <v>13.4588208007541</v>
       </c>
       <c r="I17">
-        <v>28.83684027766795</v>
+        <v>20.32288306685889</v>
       </c>
       <c r="J17">
-        <v>9.095338942588306</v>
+        <v>5.212792443402991</v>
       </c>
       <c r="K17">
-        <v>13.98868184254151</v>
+        <v>14.64127386788883</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.85366001136226</v>
+        <v>15.03726632051519</v>
       </c>
       <c r="N17">
-        <v>22.178927457366</v>
+        <v>14.07668477548624</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.1638312483594</v>
+        <v>15.74310602698114</v>
       </c>
       <c r="C18">
-        <v>9.572157158253457</v>
+        <v>11.04641574367494</v>
       </c>
       <c r="D18">
-        <v>14.70701215747873</v>
+        <v>11.77589654916606</v>
       </c>
       <c r="E18">
-        <v>15.64105860183854</v>
+        <v>11.34939991665265</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.78524563120129</v>
+        <v>43.8667882010662</v>
       </c>
       <c r="H18">
-        <v>19.86479823861319</v>
+        <v>13.43119309049869</v>
       </c>
       <c r="I18">
-        <v>28.84415343096084</v>
+        <v>20.28096466633648</v>
       </c>
       <c r="J18">
-        <v>9.098794948841007</v>
+        <v>5.214201733078953</v>
       </c>
       <c r="K18">
-        <v>13.95432513847573</v>
+        <v>14.45068718901446</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.8389150511616</v>
+        <v>14.91050982607018</v>
       </c>
       <c r="N18">
-        <v>22.1924781809274</v>
+        <v>14.12601347239589</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.14622371286257</v>
+        <v>15.67203176337213</v>
       </c>
       <c r="C19">
-        <v>9.560532038669162</v>
+        <v>10.99671211954216</v>
       </c>
       <c r="D19">
-        <v>14.70356815888788</v>
+        <v>11.7442068933084</v>
       </c>
       <c r="E19">
-        <v>15.63981666026705</v>
+        <v>11.32599025003143</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.77585962364402</v>
+        <v>43.77282547353901</v>
       </c>
       <c r="H19">
-        <v>19.86659989165651</v>
+        <v>13.42200857145145</v>
       </c>
       <c r="I19">
-        <v>28.84671351017914</v>
+        <v>20.26705740780597</v>
       </c>
       <c r="J19">
-        <v>9.099979174828471</v>
+        <v>5.214713025886731</v>
       </c>
       <c r="K19">
-        <v>13.94272531855114</v>
+        <v>14.38570857979235</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.83398000367695</v>
+        <v>14.8675260183492</v>
       </c>
       <c r="N19">
-        <v>22.19709794777122</v>
+        <v>14.14277825193935</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.22547682843014</v>
+        <v>15.98989423317102</v>
       </c>
       <c r="C20">
-        <v>9.612896865122432</v>
+        <v>11.22185244064717</v>
       </c>
       <c r="D20">
-        <v>14.71925521014227</v>
+        <v>11.88676491575162</v>
       </c>
       <c r="E20">
-        <v>15.64559017680687</v>
+        <v>11.43153547490047</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.81890248710734</v>
+        <v>44.19734181625245</v>
       </c>
       <c r="H20">
-        <v>19.85870335597749</v>
+        <v>13.46401522197977</v>
       </c>
       <c r="I20">
-        <v>28.83552667225585</v>
+        <v>20.33077781688189</v>
       </c>
       <c r="J20">
-        <v>9.09470600002248</v>
+        <v>5.212547912984957</v>
       </c>
       <c r="K20">
-        <v>13.99505582015211</v>
+        <v>14.67633439136729</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.85641614129558</v>
+        <v>15.06069402423424</v>
       </c>
       <c r="N20">
-        <v>22.17643458682155</v>
+        <v>14.06758507654636</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.4918001019458</v>
+        <v>17.0235808089607</v>
       </c>
       <c r="C21">
-        <v>9.789554279167122</v>
+        <v>11.95958955595395</v>
       </c>
       <c r="D21">
-        <v>14.77523596532115</v>
+        <v>12.36464347918704</v>
       </c>
       <c r="E21">
-        <v>15.66820932368052</v>
+        <v>11.78950496144657</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>51.97754497268332</v>
+        <v>45.65282757562188</v>
       </c>
       <c r="H21">
-        <v>19.83586804403194</v>
+        <v>13.61727804426655</v>
       </c>
       <c r="I21">
-        <v>28.80378700014153</v>
+        <v>20.56530756441115</v>
       </c>
       <c r="J21">
-        <v>9.077967130217544</v>
+        <v>5.207700353307143</v>
       </c>
       <c r="K21">
-        <v>14.17301175116588</v>
+        <v>15.62191311487346</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.93574503912587</v>
+        <v>15.70475915916357</v>
       </c>
       <c r="N21">
-        <v>22.1092124273111</v>
+        <v>13.81935483480505</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.66558322336655</v>
+        <v>17.67404735187661</v>
       </c>
       <c r="C22">
-        <v>9.905348309387591</v>
+        <v>12.42619401836323</v>
       </c>
       <c r="D22">
-        <v>14.81422829804274</v>
+        <v>12.67589603190663</v>
       </c>
       <c r="E22">
-        <v>15.6853793802751</v>
+        <v>12.02581652423434</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>52.09160066044676</v>
+        <v>46.62573804276246</v>
       </c>
       <c r="H22">
-        <v>19.82370013073085</v>
+        <v>13.72686052799129</v>
       </c>
       <c r="I22">
-        <v>28.78740618309268</v>
+        <v>20.73449613900472</v>
       </c>
       <c r="J22">
-        <v>9.067754892244745</v>
+        <v>5.206405460360289</v>
       </c>
       <c r="K22">
-        <v>14.29073212328534</v>
+        <v>16.21733228221771</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.9904805229186</v>
+        <v>16.12165395803868</v>
       </c>
       <c r="N22">
-        <v>22.066917973372</v>
+        <v>13.66045513172538</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.57287641025146</v>
+        <v>17.32914872527494</v>
       </c>
       <c r="C23">
-        <v>9.843528456484798</v>
+        <v>12.17855900915502</v>
       </c>
       <c r="D23">
-        <v>14.7931995565191</v>
+        <v>12.50988639274097</v>
       </c>
       <c r="E23">
-        <v>15.6759978916339</v>
+        <v>11.89948469263115</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.02978324257954</v>
+        <v>46.10449529493629</v>
       </c>
       <c r="H23">
-        <v>19.8299420900399</v>
+        <v>13.66748807724535</v>
       </c>
       <c r="I23">
-        <v>28.79574942115882</v>
+        <v>20.642697392142</v>
       </c>
       <c r="J23">
-        <v>9.073138881020672</v>
+        <v>5.206920877453866</v>
       </c>
       <c r="K23">
-        <v>14.22778415944107</v>
+        <v>15.90158149950826</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.96100621936704</v>
+        <v>15.89953808424112</v>
       </c>
       <c r="N23">
-        <v>22.08934156112246</v>
+        <v>13.74495421611548</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.22112366665152</v>
+        <v>15.97256883943065</v>
       </c>
       <c r="C24">
-        <v>9.610018026734013</v>
+        <v>11.20952732874841</v>
       </c>
       <c r="D24">
-        <v>14.71838134872544</v>
+        <v>11.87893970757754</v>
       </c>
       <c r="E24">
-        <v>15.6452609735157</v>
+        <v>11.42572642158705</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.81648583286398</v>
+        <v>44.17391932286301</v>
       </c>
       <c r="H24">
-        <v>19.85912309652915</v>
+        <v>13.4616637515607</v>
       </c>
       <c r="I24">
-        <v>28.83611902004587</v>
+        <v>20.32720342049332</v>
       </c>
       <c r="J24">
-        <v>9.094991893352029</v>
+        <v>5.21265783887051</v>
       </c>
       <c r="K24">
-        <v>13.99217361518934</v>
+        <v>14.66049190135107</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.85516908075014</v>
+        <v>15.05010377884903</v>
       </c>
       <c r="N24">
-        <v>22.17756101966325</v>
+        <v>14.0716978372608</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.8425343469026</v>
+        <v>14.39864436570475</v>
       </c>
       <c r="C25">
-        <v>9.360878938427696</v>
+        <v>10.17867537109272</v>
       </c>
       <c r="D25">
-        <v>14.64822439145532</v>
+        <v>11.19556540917848</v>
       </c>
       <c r="E25">
-        <v>15.62243792463835</v>
+        <v>10.92581344044121</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.63142817569978</v>
+        <v>42.18523900587442</v>
       </c>
       <c r="H25">
-        <v>19.90242114806097</v>
+        <v>13.27763889170342</v>
       </c>
       <c r="I25">
-        <v>28.89835793183608</v>
+        <v>20.05082665046223</v>
       </c>
       <c r="J25">
-        <v>9.121697713490839</v>
+        <v>5.226481258042409</v>
       </c>
       <c r="K25">
-        <v>13.74522884917076</v>
+        <v>13.2220298999763</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.75373978976839</v>
+        <v>14.11900503875317</v>
       </c>
       <c r="N25">
-        <v>22.27978040298231</v>
+        <v>14.43819154553476</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.14152062979514</v>
+        <v>24.14606314459434</v>
       </c>
       <c r="C2">
-        <v>9.389812848214593</v>
+        <v>21.26247906758262</v>
       </c>
       <c r="D2">
-        <v>10.69246805136546</v>
+        <v>12.59750123727304</v>
       </c>
       <c r="E2">
-        <v>10.56855271673358</v>
+        <v>14.02860447620214</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.80281725495318</v>
+        <v>49.30469649454997</v>
       </c>
       <c r="H2">
-        <v>13.17211508220872</v>
+        <v>1.855555762625377</v>
       </c>
       <c r="I2">
-        <v>19.89745286413488</v>
+        <v>2.588861910413371</v>
       </c>
       <c r="J2">
-        <v>5.242810262421141</v>
+        <v>14.51649240405546</v>
       </c>
       <c r="K2">
-        <v>12.12386071488044</v>
+        <v>20.44687445579217</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.571072905741791</v>
       </c>
       <c r="M2">
-        <v>13.424201972383</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.72003311620512</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.25022292352571</v>
+        <v>22.52004314261428</v>
       </c>
       <c r="C3">
-        <v>8.829601194830419</v>
+        <v>19.80953518675558</v>
       </c>
       <c r="D3">
-        <v>10.35316534630654</v>
+        <v>11.98846166119656</v>
       </c>
       <c r="E3">
-        <v>10.33394905038474</v>
+        <v>13.28072691004044</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.91781856118669</v>
+        <v>47.01655579740234</v>
       </c>
       <c r="H3">
-        <v>13.11794719989588</v>
+        <v>2.220536836397106</v>
       </c>
       <c r="I3">
-        <v>19.82232834137778</v>
+        <v>2.853318317890453</v>
       </c>
       <c r="J3">
-        <v>5.257522642474478</v>
+        <v>14.13851467449308</v>
       </c>
       <c r="K3">
-        <v>11.46068307038174</v>
+        <v>20.05004197432118</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.303806511707245</v>
       </c>
       <c r="M3">
-        <v>12.94992989176447</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.91854282466903</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.73252415184672</v>
+        <v>21.46216923798109</v>
       </c>
       <c r="C4">
-        <v>8.473574298600365</v>
+        <v>18.87155060720868</v>
       </c>
       <c r="D4">
-        <v>10.14627768519526</v>
+        <v>11.60131531559264</v>
       </c>
       <c r="E4">
-        <v>10.19388437012217</v>
+        <v>12.80165268013321</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.40027513645367</v>
+        <v>45.56670690754271</v>
       </c>
       <c r="H4">
-        <v>13.09279500091845</v>
+        <v>2.451479809040058</v>
       </c>
       <c r="I4">
-        <v>19.78960055890618</v>
+        <v>3.020968696636082</v>
       </c>
       <c r="J4">
-        <v>5.268295666273324</v>
+        <v>13.90454679045346</v>
       </c>
       <c r="K4">
-        <v>11.04050838071262</v>
+        <v>19.80515766132338</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.133891655205665</v>
       </c>
       <c r="M4">
-        <v>12.65800671152141</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.04414951267478</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51635069080503</v>
+        <v>21.01582047872434</v>
       </c>
       <c r="C5">
-        <v>8.325577116198742</v>
+        <v>18.48916404130581</v>
       </c>
       <c r="D5">
-        <v>10.06243678199842</v>
+        <v>11.44018503056421</v>
       </c>
       <c r="E5">
-        <v>10.13785126110545</v>
+        <v>12.60116309453603</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.19590467104356</v>
+        <v>44.92069067436121</v>
       </c>
       <c r="H5">
-        <v>13.08451728442991</v>
+        <v>2.547799815860043</v>
       </c>
       <c r="I5">
-        <v>19.77951193137028</v>
+        <v>3.093654724091321</v>
       </c>
       <c r="J5">
-        <v>5.273114880186896</v>
+        <v>13.799596068867</v>
       </c>
       <c r="K5">
-        <v>10.86620378740274</v>
+        <v>19.68623555152309</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.062979896806212</v>
       </c>
       <c r="M5">
-        <v>12.539026591481</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.09627447521476</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48014548333345</v>
+        <v>20.94055299063232</v>
       </c>
       <c r="C6">
-        <v>8.300830415653333</v>
+        <v>18.43898428088725</v>
       </c>
       <c r="D6">
-        <v>10.04854645200313</v>
+        <v>11.4130297456995</v>
       </c>
       <c r="E6">
-        <v>10.12861131690777</v>
+        <v>12.56716622852856</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.16236430363119</v>
+        <v>44.75839415325535</v>
       </c>
       <c r="H6">
-        <v>13.08325992696203</v>
+        <v>2.564433802644563</v>
       </c>
       <c r="I6">
-        <v>19.7780293582054</v>
+        <v>3.10967796155409</v>
       </c>
       <c r="J6">
-        <v>5.273940788799031</v>
+        <v>13.77089527913871</v>
       </c>
       <c r="K6">
-        <v>10.83708076696029</v>
+        <v>19.64343825047619</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.050845079718981</v>
       </c>
       <c r="M6">
-        <v>12.5192738664358</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.10498663436453</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.72962963692244</v>
+        <v>21.45555640112288</v>
       </c>
       <c r="C7">
-        <v>8.471589973548076</v>
+        <v>18.90373811942317</v>
       </c>
       <c r="D7">
-        <v>10.14514494278373</v>
+        <v>11.59859018194123</v>
       </c>
       <c r="E7">
-        <v>10.19312440338057</v>
+        <v>12.79786910609199</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.39749244279469</v>
+        <v>45.41182278050929</v>
       </c>
       <c r="H7">
-        <v>13.09267546835025</v>
+        <v>2.454206892974796</v>
       </c>
       <c r="I7">
-        <v>19.78945150851466</v>
+        <v>3.032283887698475</v>
       </c>
       <c r="J7">
-        <v>5.268358933090389</v>
+        <v>13.87267003709844</v>
       </c>
       <c r="K7">
-        <v>11.0381698468739</v>
+        <v>19.7410153417335</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.13220710106129</v>
       </c>
       <c r="M7">
-        <v>12.65640195768951</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.0448486798409</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.8326124522618</v>
+        <v>23.59682519487929</v>
       </c>
       <c r="C8">
-        <v>9.199214941105231</v>
+        <v>20.81623355252308</v>
       </c>
       <c r="D8">
-        <v>10.57523680505781</v>
+        <v>12.38961200364774</v>
       </c>
       <c r="E8">
-        <v>10.48686054802823</v>
+        <v>13.77353475660165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.49232841540978</v>
+        <v>48.34251250106795</v>
       </c>
       <c r="H8">
-        <v>13.15171539146956</v>
+        <v>1.981840925858655</v>
       </c>
       <c r="I8">
-        <v>19.86869625203631</v>
+        <v>2.692681502205455</v>
       </c>
       <c r="J8">
-        <v>5.247516927639302</v>
+        <v>14.34756643738713</v>
       </c>
       <c r="K8">
-        <v>11.897989979529</v>
+        <v>20.22946520978349</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.479213906384648</v>
       </c>
       <c r="M8">
-        <v>13.26091451323698</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.78770883830082</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.9438866515508</v>
+        <v>27.32964760970827</v>
       </c>
       <c r="C9">
-        <v>10.52678822139348</v>
+        <v>24.14793809550977</v>
       </c>
       <c r="D9">
-        <v>11.42593973785041</v>
+        <v>13.83275450259091</v>
       </c>
       <c r="E9">
-        <v>11.09262310442773</v>
+        <v>15.52892365093733</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.84252180378743</v>
+        <v>53.9547955541663</v>
       </c>
       <c r="H9">
-        <v>13.33479232112046</v>
+        <v>2.00524849553084</v>
       </c>
       <c r="I9">
-        <v>20.13581391609981</v>
+        <v>2.892066811296547</v>
       </c>
       <c r="J9">
-        <v>5.220842736303744</v>
+        <v>15.31339651797515</v>
       </c>
       <c r="K9">
-        <v>13.72018647773588</v>
+        <v>21.28532550804463</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.114424743237787</v>
       </c>
       <c r="M9">
-        <v>14.43435531734976</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.31287305974189</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.34933045358665</v>
+        <v>29.78825949041216</v>
       </c>
       <c r="C10">
-        <v>11.47785081248673</v>
+        <v>26.32421961536809</v>
       </c>
       <c r="D10">
-        <v>12.05050800068067</v>
+        <v>14.68284172186987</v>
       </c>
       <c r="E10">
-        <v>11.55349150481188</v>
+        <v>16.46529116050004</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.69057675303436</v>
+        <v>57.15159512378126</v>
       </c>
       <c r="H10">
-        <v>13.51441209612364</v>
+        <v>2.583802754444758</v>
       </c>
       <c r="I10">
-        <v>20.40757578847711</v>
+        <v>3.321089107250518</v>
       </c>
       <c r="J10">
-        <v>5.210479152856292</v>
+        <v>15.85876832930806</v>
       </c>
       <c r="K10">
-        <v>15.00505039274015</v>
+        <v>21.78974985796471</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.447043082050916</v>
       </c>
       <c r="M10">
-        <v>15.28196105042649</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.98189729982163</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.95807226799585</v>
+        <v>30.80288899762506</v>
       </c>
       <c r="C11">
-        <v>11.91269857306726</v>
+        <v>26.69155165317235</v>
       </c>
       <c r="D11">
-        <v>12.33373524403474</v>
+        <v>13.85833284732963</v>
       </c>
       <c r="E11">
-        <v>11.76616899127976</v>
+        <v>14.71824842429425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.5572508548871</v>
+        <v>53.07807430382182</v>
       </c>
       <c r="H11">
-        <v>13.60680593059408</v>
+        <v>3.33301640536228</v>
       </c>
       <c r="I11">
-        <v>20.54919721542097</v>
+        <v>3.422144583616602</v>
       </c>
       <c r="J11">
-        <v>5.207906660615836</v>
+        <v>14.88475650252585</v>
       </c>
       <c r="K11">
-        <v>15.56196599407199</v>
+        <v>19.91434645341378</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.744972422776098</v>
       </c>
       <c r="M11">
-        <v>15.66325362815003</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.8352466845393</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.18427457623691</v>
+        <v>31.16214353159827</v>
       </c>
       <c r="C12">
-        <v>12.074692387779</v>
+        <v>26.51061749215772</v>
       </c>
       <c r="D12">
-        <v>12.44080646411608</v>
+        <v>12.97875262882101</v>
       </c>
       <c r="E12">
-        <v>11.84711131187535</v>
+        <v>13.08520945088703</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.88915715988779</v>
+        <v>49.10985850839673</v>
       </c>
       <c r="H12">
-        <v>13.64340292384259</v>
+        <v>4.454419699225887</v>
       </c>
       <c r="I12">
-        <v>20.60554499955666</v>
+        <v>3.421464716267381</v>
       </c>
       <c r="J12">
-        <v>5.207252810098051</v>
+        <v>13.98433876272219</v>
       </c>
       <c r="K12">
-        <v>15.76897799623569</v>
+        <v>18.32640719545363</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.177889989786856</v>
       </c>
       <c r="M12">
-        <v>15.80695139896315</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.78028398809384</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.13574835207461</v>
+        <v>31.05114522946477</v>
       </c>
       <c r="C13">
-        <v>12.03992197759071</v>
+        <v>25.93503919873682</v>
       </c>
       <c r="D13">
-        <v>12.41775549773945</v>
+        <v>11.98320696804058</v>
       </c>
       <c r="E13">
-        <v>11.82966127133765</v>
+        <v>11.42245274157586</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.81751001915622</v>
+        <v>44.6910474312137</v>
       </c>
       <c r="H13">
-        <v>13.6354483436141</v>
+        <v>5.677153031892192</v>
       </c>
       <c r="I13">
-        <v>20.59328646703061</v>
+        <v>3.345235661491034</v>
       </c>
       <c r="J13">
-        <v>5.207379178400398</v>
+        <v>13.03293279135502</v>
       </c>
       <c r="K13">
-        <v>15.72456539787832</v>
+        <v>16.77146172636147</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.696451587635181</v>
       </c>
       <c r="M13">
-        <v>15.77603513486423</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.79209563584885</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.97676803776495</v>
+        <v>30.76007919653555</v>
       </c>
       <c r="C14">
-        <v>11.92607910846318</v>
+        <v>25.35477733393498</v>
       </c>
       <c r="D14">
-        <v>12.34254793508835</v>
+        <v>11.22579021773156</v>
       </c>
       <c r="E14">
-        <v>11.77282017152274</v>
+        <v>10.25991536218769</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.58448255397779</v>
+        <v>41.3140554082191</v>
       </c>
       <c r="H14">
-        <v>13.6097841067531</v>
+        <v>6.572767820253977</v>
       </c>
       <c r="I14">
-        <v>20.55377773443955</v>
+        <v>3.259441589989155</v>
       </c>
       <c r="J14">
-        <v>5.207846375290229</v>
+        <v>12.33614430374452</v>
       </c>
       <c r="K14">
-        <v>15.57907424588989</v>
+        <v>15.69895337063948</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.429664748666503</v>
       </c>
       <c r="M14">
-        <v>15.67508989786153</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.8307133725751</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.87882869495271</v>
+        <v>30.58717239521889</v>
       </c>
       <c r="C15">
-        <v>11.85600081880165</v>
+        <v>25.13808343767851</v>
       </c>
       <c r="D15">
-        <v>12.29645625258277</v>
+        <v>11.01554667780632</v>
       </c>
       <c r="E15">
-        <v>11.73805547467357</v>
+        <v>9.964775209750277</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.44223017197562</v>
+        <v>40.34532382499305</v>
       </c>
       <c r="H15">
-        <v>13.59427581669027</v>
+        <v>6.774507573410912</v>
       </c>
       <c r="I15">
-        <v>20.52993548933232</v>
+        <v>3.222798875813043</v>
       </c>
       <c r="J15">
-        <v>5.208174638173181</v>
+        <v>12.14669523903499</v>
       </c>
       <c r="K15">
-        <v>15.48945406851969</v>
+        <v>15.42723794431189</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.369713919835921</v>
       </c>
       <c r="M15">
-        <v>15.61316639912598</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.85444247996869</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.30893914309991</v>
+        <v>29.60333305048806</v>
       </c>
       <c r="C16">
-        <v>11.44905488441306</v>
+        <v>24.33961971251695</v>
       </c>
       <c r="D16">
-        <v>12.03197569724348</v>
+        <v>10.80664013057969</v>
       </c>
       <c r="E16">
-        <v>11.5396507801328</v>
+        <v>9.811117671298403</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.63445813087659</v>
+        <v>39.53801794594577</v>
       </c>
       <c r="H16">
-        <v>13.50859514515694</v>
+        <v>6.474680102399108</v>
       </c>
       <c r="I16">
-        <v>20.39869377646776</v>
+        <v>3.058300332087176</v>
       </c>
       <c r="J16">
-        <v>5.210691403949733</v>
+        <v>12.06374724928844</v>
       </c>
       <c r="K16">
-        <v>14.96810694954365</v>
+        <v>15.47682961427028</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.30167944520311</v>
       </c>
       <c r="M16">
-        <v>15.25694974118263</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.99156059816628</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.95155165752777</v>
+        <v>28.9930594727804</v>
       </c>
       <c r="C17">
-        <v>11.19457770346199</v>
+        <v>24.03998331520872</v>
       </c>
       <c r="D17">
-        <v>11.86945549308177</v>
+        <v>11.06132955817224</v>
       </c>
       <c r="E17">
-        <v>11.41868818983929</v>
+        <v>10.31609783005177</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.14554958148555</v>
+        <v>40.77983623334205</v>
       </c>
       <c r="H17">
-        <v>13.4588208007541</v>
+        <v>5.71194150597245</v>
       </c>
       <c r="I17">
-        <v>20.32288306685889</v>
+        <v>2.977217837203598</v>
       </c>
       <c r="J17">
-        <v>5.212792443402991</v>
+        <v>12.37408852154607</v>
       </c>
       <c r="K17">
-        <v>14.64127386788883</v>
+        <v>16.07444011509453</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.376977050292973</v>
       </c>
       <c r="M17">
-        <v>15.03726632051519</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.07668477548624</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.74310602698114</v>
+        <v>28.65019853049849</v>
       </c>
       <c r="C18">
-        <v>11.04641574367494</v>
+        <v>24.12202772461509</v>
       </c>
       <c r="D18">
-        <v>11.77589654916606</v>
+        <v>11.74925052275313</v>
       </c>
       <c r="E18">
-        <v>11.34939991665265</v>
+        <v>11.51567167069544</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.8667882010662</v>
+        <v>44.02989987988264</v>
       </c>
       <c r="H18">
-        <v>13.43119309049869</v>
+        <v>4.500753805828599</v>
       </c>
       <c r="I18">
-        <v>20.28096466633648</v>
+        <v>2.958777546500348</v>
       </c>
       <c r="J18">
-        <v>5.214201733078953</v>
+        <v>13.08453457246297</v>
       </c>
       <c r="K18">
-        <v>14.45068718901446</v>
+        <v>17.2859052562595</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.670752103519423</v>
       </c>
       <c r="M18">
-        <v>14.91050982607018</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.12601347239589</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67203176337213</v>
+        <v>28.55394247144059</v>
       </c>
       <c r="C19">
-        <v>10.99671211954216</v>
+        <v>24.55903075272697</v>
       </c>
       <c r="D19">
-        <v>11.7442068933084</v>
+        <v>12.73071532516647</v>
       </c>
       <c r="E19">
-        <v>11.32599025003143</v>
+        <v>13.23924087869216</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.77282547353901</v>
+        <v>48.39218129373461</v>
       </c>
       <c r="H19">
-        <v>13.42200857145145</v>
+        <v>3.182347698194617</v>
       </c>
       <c r="I19">
-        <v>20.26705740780597</v>
+        <v>3.004688650257323</v>
       </c>
       <c r="J19">
-        <v>5.214713025886731</v>
+        <v>14.0227851497448</v>
       </c>
       <c r="K19">
-        <v>14.38570857979235</v>
+        <v>18.85085890797646</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.220171591262403</v>
       </c>
       <c r="M19">
-        <v>14.8675260183492</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.14277825193935</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.98989423317102</v>
+        <v>29.15885401898355</v>
       </c>
       <c r="C20">
-        <v>11.22185244064717</v>
+        <v>25.85093409647115</v>
       </c>
       <c r="D20">
-        <v>11.88676491575162</v>
+        <v>14.45586571437715</v>
       </c>
       <c r="E20">
-        <v>11.43153547490047</v>
+        <v>16.20982356359046</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.19734181625245</v>
+        <v>55.92353567393157</v>
       </c>
       <c r="H20">
-        <v>13.46401522197977</v>
+        <v>2.427567025282446</v>
       </c>
       <c r="I20">
-        <v>20.33077781688189</v>
+        <v>3.215621889628741</v>
       </c>
       <c r="J20">
-        <v>5.212547912984957</v>
+        <v>15.62597586240545</v>
       </c>
       <c r="K20">
-        <v>14.67633439136729</v>
+        <v>21.46928427757566</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.3542715545097</v>
       </c>
       <c r="M20">
-        <v>15.06069402423424</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.06758507654636</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.0235808089607</v>
+        <v>30.96783783122465</v>
       </c>
       <c r="C21">
-        <v>11.95958955595395</v>
+        <v>27.54428880271688</v>
       </c>
       <c r="D21">
-        <v>12.36464347918704</v>
+        <v>15.30241769245669</v>
       </c>
       <c r="E21">
-        <v>11.78950496144657</v>
+        <v>17.29404539597736</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.65282757562188</v>
+        <v>59.35321076803754</v>
       </c>
       <c r="H21">
-        <v>13.61727804426655</v>
+        <v>2.900856472867209</v>
       </c>
       <c r="I21">
-        <v>20.56530756441115</v>
+        <v>3.55694401171329</v>
       </c>
       <c r="J21">
-        <v>5.207700353307143</v>
+        <v>16.27296012122464</v>
       </c>
       <c r="K21">
-        <v>15.62191311487346</v>
+        <v>22.26254964727315</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.76508757278852</v>
       </c>
       <c r="M21">
-        <v>15.70475915916357</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.81935483480505</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67404735187661</v>
+        <v>32.09980156060075</v>
       </c>
       <c r="C22">
-        <v>12.42619401836323</v>
+        <v>28.54407781617428</v>
       </c>
       <c r="D22">
-        <v>12.67589603190663</v>
+        <v>15.77102087910701</v>
       </c>
       <c r="E22">
-        <v>12.02581652423434</v>
+        <v>17.85475220029251</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.62573804276246</v>
+        <v>61.37117549737214</v>
       </c>
       <c r="H22">
-        <v>13.72686052799129</v>
+        <v>3.195876457150033</v>
       </c>
       <c r="I22">
-        <v>20.73449613900472</v>
+        <v>3.77068877613306</v>
       </c>
       <c r="J22">
-        <v>5.206405460360289</v>
+        <v>16.65544437855125</v>
       </c>
       <c r="K22">
-        <v>16.21733228221771</v>
+        <v>22.72955508298826</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.975056183724432</v>
       </c>
       <c r="M22">
-        <v>16.12165395803868</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.66045513172538</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32914872527494</v>
+        <v>31.50087093227731</v>
       </c>
       <c r="C23">
-        <v>12.17855900915502</v>
+        <v>27.98274425128293</v>
       </c>
       <c r="D23">
-        <v>12.50988639274097</v>
+        <v>15.52266912818281</v>
       </c>
       <c r="E23">
-        <v>11.89948469263115</v>
+        <v>17.55812658101529</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.10449529493629</v>
+        <v>60.43234801697831</v>
       </c>
       <c r="H23">
-        <v>13.66748807724535</v>
+        <v>3.040166820410225</v>
       </c>
       <c r="I23">
-        <v>20.642697392142</v>
+        <v>3.654455820369672</v>
       </c>
       <c r="J23">
-        <v>5.206920877453866</v>
+        <v>16.48222751715241</v>
       </c>
       <c r="K23">
-        <v>15.90158149950826</v>
+        <v>22.54564224736877</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.864147206842867</v>
       </c>
       <c r="M23">
-        <v>15.89953808424112</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.74495421611548</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.97256883943065</v>
+        <v>29.13376627571553</v>
       </c>
       <c r="C24">
-        <v>11.20952732874841</v>
+        <v>25.82994468912784</v>
       </c>
       <c r="D24">
-        <v>11.87893970757754</v>
+        <v>14.55445162104842</v>
       </c>
       <c r="E24">
-        <v>11.42572642158705</v>
+        <v>16.39769606095986</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.17391932286301</v>
+        <v>56.57880372692883</v>
       </c>
       <c r="H24">
-        <v>13.4616637515607</v>
+        <v>2.440943983366381</v>
       </c>
       <c r="I24">
-        <v>20.32720342049332</v>
+        <v>3.214357652252774</v>
       </c>
       <c r="J24">
-        <v>5.21265783887051</v>
+        <v>15.77352514506721</v>
       </c>
       <c r="K24">
-        <v>14.66049190135107</v>
+        <v>21.74719410098349</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.433063048186879</v>
       </c>
       <c r="M24">
-        <v>15.05010377884903</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.0716978372608</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39864436570475</v>
+        <v>26.36797785674168</v>
       </c>
       <c r="C25">
-        <v>10.17867537109272</v>
+        <v>23.3399005003552</v>
       </c>
       <c r="D25">
-        <v>11.19556540917848</v>
+        <v>13.4536365974418</v>
       </c>
       <c r="E25">
-        <v>10.92581344044121</v>
+        <v>15.06961097796741</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.18523900587442</v>
+        <v>52.24823488168552</v>
       </c>
       <c r="H25">
-        <v>13.27763889170342</v>
+        <v>1.77645702501317</v>
       </c>
       <c r="I25">
-        <v>20.05082665046223</v>
+        <v>2.732161206333687</v>
       </c>
       <c r="J25">
-        <v>5.226481258042409</v>
+        <v>15.00350708426833</v>
       </c>
       <c r="K25">
-        <v>13.2220298999763</v>
+        <v>20.89440467780122</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.946412582185133</v>
       </c>
       <c r="M25">
-        <v>14.11900503875317</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.43819154553476</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.14606314459434</v>
+        <v>24.18082933428853</v>
       </c>
       <c r="C2">
-        <v>21.26247906758262</v>
+        <v>22.50823875786091</v>
       </c>
       <c r="D2">
-        <v>12.59750123727304</v>
+        <v>12.60986360572996</v>
       </c>
       <c r="E2">
-        <v>14.02860447620214</v>
+        <v>14.05273930627787</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.30469649454997</v>
+        <v>43.59668661377935</v>
       </c>
       <c r="H2">
-        <v>1.855555762625377</v>
+        <v>1.822998421568486</v>
       </c>
       <c r="I2">
-        <v>2.588861910413371</v>
+        <v>2.502105830716897</v>
       </c>
       <c r="J2">
-        <v>14.51649240405546</v>
+        <v>13.67801811554228</v>
       </c>
       <c r="K2">
-        <v>20.44687445579217</v>
+        <v>17.96347971872455</v>
       </c>
       <c r="L2">
-        <v>6.571072905741791</v>
+        <v>14.98808340021711</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.76587557523256</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.587389854151063</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.52004314261428</v>
+        <v>22.56771698350601</v>
       </c>
       <c r="C3">
-        <v>19.80953518675558</v>
+        <v>20.92817372008921</v>
       </c>
       <c r="D3">
-        <v>11.98846166119656</v>
+        <v>12.01263376661853</v>
       </c>
       <c r="E3">
-        <v>13.28072691004044</v>
+        <v>13.32788283908212</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.01655579740234</v>
+        <v>41.89961348791557</v>
       </c>
       <c r="H3">
-        <v>2.220536836397106</v>
+        <v>2.158234692885558</v>
       </c>
       <c r="I3">
-        <v>2.853318317890453</v>
+        <v>2.727666304494726</v>
       </c>
       <c r="J3">
-        <v>14.13851467449308</v>
+        <v>13.38155920512047</v>
       </c>
       <c r="K3">
-        <v>20.05004197432118</v>
+        <v>17.82892981892627</v>
       </c>
       <c r="L3">
-        <v>6.303806511707245</v>
+        <v>15.00608593203353</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.52869053810002</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.335431111058952</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46216923798109</v>
+        <v>21.51739684752352</v>
       </c>
       <c r="C4">
-        <v>18.87155060720868</v>
+        <v>19.90625919162607</v>
       </c>
       <c r="D4">
-        <v>11.60131531559264</v>
+        <v>11.63316525600567</v>
       </c>
       <c r="E4">
-        <v>12.80165268013321</v>
+        <v>12.86375034411039</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.56670690754271</v>
+        <v>40.83266605109661</v>
       </c>
       <c r="H4">
-        <v>2.451479809040058</v>
+        <v>2.370658102923894</v>
       </c>
       <c r="I4">
-        <v>3.020968696636082</v>
+        <v>2.871177330136658</v>
       </c>
       <c r="J4">
-        <v>13.90454679045346</v>
+        <v>13.19539808257955</v>
       </c>
       <c r="K4">
-        <v>19.80515766132338</v>
+        <v>17.74651880501185</v>
       </c>
       <c r="L4">
-        <v>6.133891655205665</v>
+        <v>15.01159765565063</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.40279597203536</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.175276557464617</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01582047872434</v>
+        <v>21.07405948511807</v>
       </c>
       <c r="C5">
-        <v>18.48916404130581</v>
+        <v>19.48683167094875</v>
       </c>
       <c r="D5">
-        <v>11.44018503056421</v>
+        <v>11.47530868291511</v>
       </c>
       <c r="E5">
-        <v>12.60116309453603</v>
+        <v>12.66962467420486</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.92069067436121</v>
+        <v>40.35373723287453</v>
       </c>
       <c r="H5">
-        <v>2.547799815860043</v>
+        <v>2.459286004100437</v>
       </c>
       <c r="I5">
-        <v>3.093654724091321</v>
+        <v>2.934411743096717</v>
       </c>
       <c r="J5">
-        <v>13.799596068867</v>
+        <v>13.11076037669634</v>
       </c>
       <c r="K5">
-        <v>19.68623555152309</v>
+        <v>17.69774731609017</v>
       </c>
       <c r="L5">
-        <v>6.062979896806212</v>
+        <v>15.00005684905473</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.34593584464893</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.108474807108336</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94055299063232</v>
+        <v>20.9993004698763</v>
       </c>
       <c r="C6">
-        <v>18.43898428088725</v>
+        <v>19.42873977559392</v>
       </c>
       <c r="D6">
-        <v>11.4130297456995</v>
+        <v>11.44873826912903</v>
       </c>
       <c r="E6">
-        <v>12.56716622852856</v>
+        <v>12.63676332183486</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.75839415325535</v>
+        <v>40.22713374744453</v>
       </c>
       <c r="H6">
-        <v>2.564433802644563</v>
+        <v>2.474551116527328</v>
       </c>
       <c r="I6">
-        <v>3.10967796155409</v>
+        <v>2.949473452065076</v>
       </c>
       <c r="J6">
-        <v>13.77089527913871</v>
+        <v>13.08713645767531</v>
       </c>
       <c r="K6">
-        <v>19.64343825047619</v>
+        <v>17.67110355668864</v>
       </c>
       <c r="L6">
-        <v>6.050845079718981</v>
+        <v>14.98294997229209</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.32381986379105</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.097072446611879</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45555640112288</v>
+        <v>21.51053443330973</v>
       </c>
       <c r="C7">
-        <v>18.90373811942317</v>
+        <v>19.91834801494527</v>
       </c>
       <c r="D7">
-        <v>11.59859018194123</v>
+        <v>11.63018700048569</v>
       </c>
       <c r="E7">
-        <v>12.79786910609199</v>
+        <v>12.85946893751299</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.41182278050929</v>
+        <v>40.74994405530617</v>
       </c>
       <c r="H7">
-        <v>2.454206892974796</v>
+        <v>2.374029530626345</v>
       </c>
       <c r="I7">
-        <v>3.032283887698475</v>
+        <v>2.884863340518132</v>
       </c>
       <c r="J7">
-        <v>13.87267003709844</v>
+        <v>13.1015976170554</v>
       </c>
       <c r="K7">
-        <v>19.7410153417335</v>
+        <v>17.67194569425368</v>
       </c>
       <c r="L7">
-        <v>6.13220710106129</v>
+        <v>14.95194780449464</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.34933212757584</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.173261816464038</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59682519487929</v>
+        <v>23.63513712066252</v>
       </c>
       <c r="C8">
-        <v>20.81623355252308</v>
+        <v>21.96763027380547</v>
       </c>
       <c r="D8">
-        <v>12.38961200364774</v>
+        <v>12.40491280325599</v>
       </c>
       <c r="E8">
-        <v>13.77353475660165</v>
+        <v>13.80339626970508</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.34251250106795</v>
+        <v>43.01727387871107</v>
       </c>
       <c r="H8">
-        <v>1.981840925858655</v>
+        <v>1.941818920289862</v>
       </c>
       <c r="I8">
-        <v>2.692681502205455</v>
+        <v>2.597427110359478</v>
       </c>
       <c r="J8">
-        <v>14.34756643738713</v>
+        <v>13.32831803380809</v>
       </c>
       <c r="K8">
-        <v>20.22946520978349</v>
+        <v>17.7754918273001</v>
       </c>
       <c r="L8">
-        <v>6.479213906384648</v>
+        <v>14.88615488057926</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.57370301624261</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.499354343995243</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.32964760970827</v>
+        <v>27.33264442497742</v>
       </c>
       <c r="C9">
-        <v>24.14793809550977</v>
+        <v>25.58311743914761</v>
       </c>
       <c r="D9">
-        <v>13.83275450259091</v>
+        <v>13.82025646007684</v>
       </c>
       <c r="E9">
-        <v>15.52892365093733</v>
+        <v>15.5045147258907</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.9547955541663</v>
+        <v>47.27825289843822</v>
       </c>
       <c r="H9">
-        <v>2.00524849553084</v>
+        <v>1.972021289062332</v>
       </c>
       <c r="I9">
-        <v>2.892066811296547</v>
+        <v>2.901174930380412</v>
       </c>
       <c r="J9">
-        <v>15.31339651797515</v>
+        <v>14.02731746248373</v>
       </c>
       <c r="K9">
-        <v>21.28532550804463</v>
+        <v>18.15671473832344</v>
       </c>
       <c r="L9">
-        <v>7.114424743237787</v>
+        <v>14.84958542389544</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.29473568091534</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.097740295468662</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.78825949041216</v>
+        <v>29.76129119338639</v>
       </c>
       <c r="C10">
-        <v>26.32421961536809</v>
+        <v>27.84644821465091</v>
       </c>
       <c r="D10">
-        <v>14.68284172186987</v>
+        <v>14.65020505229334</v>
       </c>
       <c r="E10">
-        <v>16.46529116050004</v>
+        <v>16.4012647359142</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.15159512378126</v>
+        <v>49.95390566213438</v>
       </c>
       <c r="H10">
-        <v>2.583802754444758</v>
+        <v>2.495699894258446</v>
       </c>
       <c r="I10">
-        <v>3.321089107250518</v>
+        <v>3.263741566870722</v>
       </c>
       <c r="J10">
-        <v>15.85876832930806</v>
+        <v>14.05408036759886</v>
       </c>
       <c r="K10">
-        <v>21.78974985796471</v>
+        <v>18.1244430944332</v>
       </c>
       <c r="L10">
-        <v>7.447043082050916</v>
+        <v>14.57092799793761</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.65073524303555</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.402973017549648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.80288899762506</v>
+        <v>30.7677190023507</v>
       </c>
       <c r="C11">
-        <v>26.69155165317235</v>
+        <v>27.92538816701827</v>
       </c>
       <c r="D11">
-        <v>13.85833284732963</v>
+        <v>13.82056910748402</v>
       </c>
       <c r="E11">
-        <v>14.71824842429425</v>
+        <v>14.64012073363062</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.07807430382182</v>
+        <v>47.04810380075581</v>
       </c>
       <c r="H11">
-        <v>3.33301640536228</v>
+        <v>3.253678764365675</v>
       </c>
       <c r="I11">
-        <v>3.422144583616602</v>
+        <v>3.348796842471121</v>
       </c>
       <c r="J11">
-        <v>14.88475650252585</v>
+        <v>12.55056711177264</v>
       </c>
       <c r="K11">
-        <v>19.91434645341378</v>
+        <v>16.38367510058645</v>
       </c>
       <c r="L11">
-        <v>6.744972422776098</v>
+        <v>13.24268701313185</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.40864703212277</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.690281972888943</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16214353159827</v>
+        <v>31.12707268326696</v>
       </c>
       <c r="C12">
-        <v>26.51061749215772</v>
+        <v>27.52641488808826</v>
       </c>
       <c r="D12">
-        <v>12.97875262882101</v>
+        <v>12.94119500669688</v>
       </c>
       <c r="E12">
-        <v>13.08520945088703</v>
+        <v>13.00325230797801</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.10985850839673</v>
+        <v>43.99825194944626</v>
       </c>
       <c r="H12">
-        <v>4.454419699225887</v>
+        <v>4.397162796144772</v>
       </c>
       <c r="I12">
-        <v>3.421464716267381</v>
+        <v>3.347754952751338</v>
       </c>
       <c r="J12">
-        <v>13.98433876272219</v>
+        <v>11.54923271514172</v>
       </c>
       <c r="K12">
-        <v>18.32640719545363</v>
+        <v>15.103693449838</v>
       </c>
       <c r="L12">
-        <v>6.177889989786856</v>
+        <v>12.33837277475329</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.40127383802204</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.120539446804204</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.05114522946477</v>
+        <v>31.02309794792745</v>
       </c>
       <c r="C13">
-        <v>25.93503919873682</v>
+        <v>26.79012911454325</v>
       </c>
       <c r="D13">
-        <v>11.98320696804058</v>
+        <v>11.95045595587261</v>
       </c>
       <c r="E13">
-        <v>11.42245274157586</v>
+        <v>11.34661717931854</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.6910474312137</v>
+        <v>40.29756227347268</v>
       </c>
       <c r="H13">
-        <v>5.677153031892192</v>
+        <v>5.64039224821031</v>
       </c>
       <c r="I13">
-        <v>3.345235661491034</v>
+        <v>3.286191559867858</v>
       </c>
       <c r="J13">
-        <v>13.03293279135502</v>
+        <v>10.9388024899528</v>
       </c>
       <c r="K13">
-        <v>16.77146172636147</v>
+        <v>14.0717252810911</v>
       </c>
       <c r="L13">
-        <v>5.696451587635181</v>
+        <v>11.66259091765781</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.497738535417311</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.644632424907105</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.76007919653555</v>
+        <v>30.73972358666833</v>
       </c>
       <c r="C14">
-        <v>25.35477733393498</v>
+        <v>26.11818710863449</v>
       </c>
       <c r="D14">
-        <v>11.22579021773156</v>
+        <v>11.19838654950114</v>
       </c>
       <c r="E14">
-        <v>10.25991536218769</v>
+        <v>10.19351291703933</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>41.3140554082191</v>
+        <v>37.35036601245072</v>
       </c>
       <c r="H14">
-        <v>6.572767820253977</v>
+        <v>6.54782128724746</v>
       </c>
       <c r="I14">
-        <v>3.259441589989155</v>
+        <v>3.217428853570977</v>
       </c>
       <c r="J14">
-        <v>12.33614430374452</v>
+        <v>10.65954065373293</v>
       </c>
       <c r="K14">
-        <v>15.69895337063948</v>
+        <v>13.45476124377981</v>
       </c>
       <c r="L14">
-        <v>5.429664748666503</v>
+        <v>11.27931592773244</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.910664681636076</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.385926657699713</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.58717239521889</v>
+        <v>30.57011779802258</v>
       </c>
       <c r="C15">
-        <v>25.13808343767851</v>
+        <v>25.88755791578331</v>
       </c>
       <c r="D15">
-        <v>11.01554667780632</v>
+        <v>10.99049757881713</v>
       </c>
       <c r="E15">
-        <v>9.964775209750277</v>
+        <v>9.903409175199446</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.34532382499305</v>
+        <v>36.46051836169232</v>
       </c>
       <c r="H15">
-        <v>6.774507573410912</v>
+        <v>6.752970075678719</v>
       </c>
       <c r="I15">
-        <v>3.222798875813043</v>
+        <v>3.188702409115235</v>
       </c>
       <c r="J15">
-        <v>12.14669523903499</v>
+        <v>10.64641208685211</v>
       </c>
       <c r="K15">
-        <v>15.42723794431189</v>
+        <v>13.33255472734265</v>
       </c>
       <c r="L15">
-        <v>5.369713919835921</v>
+        <v>11.20984506897731</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.776330532568014</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.329799451092874</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.60333305048806</v>
+        <v>29.59968938588346</v>
       </c>
       <c r="C16">
-        <v>24.33961971251695</v>
+        <v>25.17084898766497</v>
       </c>
       <c r="D16">
-        <v>10.80664013057969</v>
+        <v>10.79146032425746</v>
       </c>
       <c r="E16">
-        <v>9.811117671298403</v>
+        <v>9.774199147424454</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>39.53801794594577</v>
+        <v>35.40422074625715</v>
       </c>
       <c r="H16">
-        <v>6.474680102399108</v>
+        <v>6.46253589515668</v>
       </c>
       <c r="I16">
-        <v>3.058300332087176</v>
+        <v>3.055570984079366</v>
       </c>
       <c r="J16">
-        <v>12.06374724928844</v>
+        <v>11.17502813483146</v>
       </c>
       <c r="K16">
-        <v>15.47682961427028</v>
+        <v>13.67144231223485</v>
       </c>
       <c r="L16">
-        <v>5.30167944520311</v>
+        <v>11.48448486758505</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.936228987750098</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.27780268097863</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.9930594727804</v>
+        <v>28.99537484579091</v>
       </c>
       <c r="C17">
-        <v>24.03998331520872</v>
+        <v>24.96889900736808</v>
       </c>
       <c r="D17">
-        <v>11.06132955817224</v>
+        <v>11.05056112544168</v>
       </c>
       <c r="E17">
-        <v>10.31609783005177</v>
+        <v>10.29071713445719</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.77983623334205</v>
+        <v>36.28195889046299</v>
       </c>
       <c r="H17">
-        <v>5.71194150597245</v>
+        <v>5.702710742427527</v>
       </c>
       <c r="I17">
-        <v>2.977217837203598</v>
+        <v>2.988941221709011</v>
       </c>
       <c r="J17">
-        <v>12.37408852154607</v>
+        <v>11.67517498147525</v>
       </c>
       <c r="K17">
-        <v>16.07444011509453</v>
+        <v>14.23553000644392</v>
       </c>
       <c r="L17">
-        <v>5.376977050292973</v>
+        <v>11.90096662279116</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.340429247536585</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.360207698992378</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.65019853049849</v>
+        <v>28.65326172161519</v>
       </c>
       <c r="C18">
-        <v>24.12202772461509</v>
+        <v>25.20108195956453</v>
       </c>
       <c r="D18">
-        <v>11.74925052275313</v>
+        <v>11.73875659384407</v>
       </c>
       <c r="E18">
-        <v>11.51567167069544</v>
+        <v>11.49222032693853</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.02989987988264</v>
+        <v>38.91106749958649</v>
       </c>
       <c r="H18">
-        <v>4.500753805828599</v>
+        <v>4.489250041129805</v>
       </c>
       <c r="I18">
-        <v>2.958777546500348</v>
+        <v>2.971296914122387</v>
       </c>
       <c r="J18">
-        <v>13.08453457246297</v>
+        <v>12.34501738562593</v>
       </c>
       <c r="K18">
-        <v>17.2859052562595</v>
+        <v>15.16357238360867</v>
       </c>
       <c r="L18">
-        <v>5.670752103519423</v>
+        <v>12.57009019400991</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.07110494466797</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.65476570240947</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.55394247144059</v>
+        <v>28.55338940727834</v>
       </c>
       <c r="C19">
-        <v>24.55903075272697</v>
+        <v>25.81996039421505</v>
       </c>
       <c r="D19">
-        <v>12.73071532516647</v>
+        <v>12.71713559308524</v>
       </c>
       <c r="E19">
-        <v>13.23924087869216</v>
+        <v>13.21066169954702</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.39218129373461</v>
+        <v>42.48582423070025</v>
       </c>
       <c r="H19">
-        <v>3.182347698194617</v>
+        <v>3.159772727933868</v>
       </c>
       <c r="I19">
-        <v>3.004688650257323</v>
+        <v>3.009130261999855</v>
       </c>
       <c r="J19">
-        <v>14.0227851497448</v>
+        <v>13.11561327434405</v>
       </c>
       <c r="K19">
-        <v>18.85085890797646</v>
+        <v>16.29815755324056</v>
       </c>
       <c r="L19">
-        <v>6.220171591262403</v>
+        <v>13.38438090799943</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.98553209003496</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.20036787071628</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.15885401898355</v>
+        <v>29.14151309316921</v>
       </c>
       <c r="C20">
-        <v>25.85093409647115</v>
+        <v>27.38147292127879</v>
       </c>
       <c r="D20">
-        <v>14.45586571437715</v>
+        <v>14.42981830824378</v>
       </c>
       <c r="E20">
-        <v>16.20982356359046</v>
+        <v>16.15876413483135</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.92353567393157</v>
+        <v>48.76081408793421</v>
       </c>
       <c r="H20">
-        <v>2.427567025282446</v>
+        <v>2.357481314425216</v>
       </c>
       <c r="I20">
-        <v>3.215621889628741</v>
+        <v>3.182396001512493</v>
       </c>
       <c r="J20">
-        <v>15.62597586240545</v>
+        <v>14.18697468084449</v>
       </c>
       <c r="K20">
-        <v>21.46928427757566</v>
+        <v>18.0582476591629</v>
       </c>
       <c r="L20">
-        <v>7.3542715545097</v>
+        <v>14.5920139356821</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.49332048213713</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.319175770793601</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.96783783122465</v>
+        <v>30.9186949408171</v>
       </c>
       <c r="C21">
-        <v>27.54428880271688</v>
+        <v>28.96331548737946</v>
       </c>
       <c r="D21">
-        <v>15.30241769245669</v>
+        <v>15.25481500382797</v>
       </c>
       <c r="E21">
-        <v>17.29404539597736</v>
+        <v>17.20126969404093</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.35321076803754</v>
+        <v>52.42671726712348</v>
       </c>
       <c r="H21">
-        <v>2.900856472867209</v>
+        <v>2.770951803154197</v>
       </c>
       <c r="I21">
-        <v>3.55694401171329</v>
+        <v>3.4562160116799</v>
       </c>
       <c r="J21">
-        <v>16.27296012122464</v>
+        <v>13.28765859779062</v>
       </c>
       <c r="K21">
-        <v>22.26254964727315</v>
+        <v>17.93356031765306</v>
       </c>
       <c r="L21">
-        <v>7.76508757278852</v>
+        <v>14.30831062926937</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.70201242378318</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.701279062114068</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.09980156060075</v>
+        <v>32.02901449967167</v>
       </c>
       <c r="C22">
-        <v>28.54407781617428</v>
+        <v>29.86979387441288</v>
       </c>
       <c r="D22">
-        <v>15.77102087910701</v>
+        <v>15.70969887582373</v>
       </c>
       <c r="E22">
-        <v>17.85475220029251</v>
+        <v>17.73538044330708</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.37117549737214</v>
+        <v>54.69944670854683</v>
       </c>
       <c r="H22">
-        <v>3.195876457150033</v>
+        <v>3.027611804807556</v>
       </c>
       <c r="I22">
-        <v>3.77068877613306</v>
+        <v>3.625220175663824</v>
       </c>
       <c r="J22">
-        <v>16.65544437855125</v>
+        <v>12.61358464059149</v>
       </c>
       <c r="K22">
-        <v>22.72955508298826</v>
+        <v>17.79601539504895</v>
       </c>
       <c r="L22">
-        <v>7.975056183724432</v>
+        <v>14.0826591601641</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.80218142117515</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.892899068935369</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.50087093227731</v>
+        <v>31.44232125970577</v>
       </c>
       <c r="C23">
-        <v>27.98274425128293</v>
+        <v>29.39073534315162</v>
       </c>
       <c r="D23">
-        <v>15.52266912818281</v>
+        <v>15.46916313950904</v>
       </c>
       <c r="E23">
-        <v>17.55812658101529</v>
+        <v>17.45389381634351</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.43234801697831</v>
+        <v>53.49573780347308</v>
       </c>
       <c r="H23">
-        <v>3.040166820410225</v>
+        <v>2.893765259806209</v>
       </c>
       <c r="I23">
-        <v>3.654455820369672</v>
+        <v>3.532794152413647</v>
       </c>
       <c r="J23">
-        <v>16.48222751715241</v>
+        <v>13.1454395497633</v>
       </c>
       <c r="K23">
-        <v>22.54564224736877</v>
+        <v>17.97744126760759</v>
       </c>
       <c r="L23">
-        <v>7.864147206842867</v>
+        <v>14.27739265147054</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.83595684962795</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.792436091642058</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.13376627571553</v>
+        <v>29.11586874513071</v>
       </c>
       <c r="C24">
-        <v>25.82994468912784</v>
+        <v>27.38571067099281</v>
       </c>
       <c r="D24">
-        <v>14.55445162104842</v>
+        <v>14.52793349162985</v>
       </c>
       <c r="E24">
-        <v>16.39769606095986</v>
+        <v>16.34593555011358</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.57880372692883</v>
+        <v>49.30189340151755</v>
       </c>
       <c r="H24">
-        <v>2.440943983366381</v>
+        <v>2.369416467264192</v>
       </c>
       <c r="I24">
-        <v>3.214357652252774</v>
+        <v>3.177794569130882</v>
       </c>
       <c r="J24">
-        <v>15.77352514506721</v>
+        <v>14.31784380278743</v>
       </c>
       <c r="K24">
-        <v>21.74719410098349</v>
+        <v>18.27607260604492</v>
       </c>
       <c r="L24">
-        <v>7.433063048186879</v>
+        <v>14.75094454203229</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.66348670624638</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.397550856301007</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.36797785674168</v>
+        <v>26.38164598039201</v>
       </c>
       <c r="C25">
-        <v>23.3399005003552</v>
+        <v>24.71481176772963</v>
       </c>
       <c r="D25">
-        <v>13.4536365974418</v>
+        <v>13.44903667290988</v>
       </c>
       <c r="E25">
-        <v>15.06961097796741</v>
+        <v>15.06062747641976</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.24823488168552</v>
+        <v>45.88646429019603</v>
       </c>
       <c r="H25">
-        <v>1.77645702501317</v>
+        <v>1.764336978888932</v>
       </c>
       <c r="I25">
-        <v>2.732161206333687</v>
+        <v>2.768841321659172</v>
       </c>
       <c r="J25">
-        <v>15.00350708426833</v>
+        <v>13.88850481793573</v>
       </c>
       <c r="K25">
-        <v>20.89440467780122</v>
+        <v>17.99869165149958</v>
       </c>
       <c r="L25">
-        <v>6.946412582185133</v>
+        <v>14.82449610489656</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.04158265648513</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.940287864538992</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
